--- a/Week_03_Python_for_Development/Day_02_Regular_Expression_and_Text_Processing/Exercises/ex_02_fermosa_scraper/files/results.xlsx
+++ b/Week_03_Python_for_Development/Day_02_Regular_Expression_and_Text_Processing/Exercises/ex_02_fermosa_scraper/files/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Combo Names</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,6 +499,9 @@
           <t>['Mini Boncel', 'Francisii', 'Silver Steel', 'Kirkii Silver Blue', 'Subspicata', 'Boncel Small Size']</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -524,6 +532,9 @@
           <t>['Coppertone', 'Silver Siam', 'Silver Princess', 'Trifaciata Robusta', 'Fernwood', 'Gracilis Large']</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -554,6 +565,9 @@
           <t>['Cylindrica', 'Hybrid Delhi', 'Motomo', 'Silver Nymph', 'Gracilis', 'Tiger']</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -584,6 +598,9 @@
           <t>['Coppertone', 'Fischeri Singularis', 'Kirkii Silver Blue', 'Midnight Fountain', 'Hybrid Delhi Large', 'Francisii']</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -614,6 +631,9 @@
           <t>['Kirkii Silver Blue', 'Patens', 'Fernwood', 'Whalefin', 'Coppertone']</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -644,6 +664,9 @@
           <t>['Parva', 'Lady Charm Pup', 'Cylindrica', 'Mini Boncel', 'Francisii', 'Subspicata']</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -674,6 +697,9 @@
           <t>['Silver Nymph', 'Gracilis', 'Silver Steel', 'Parva', 'Subspicata', 'Crocodile Rock']</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -704,6 +730,9 @@
           <t>['Cylindrica', 'Gracilis', 'Kirkii Silver Blue', 'Parva', 'Subspicata', 'Mini Boncel']</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -734,6 +763,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -764,6 +796,9 @@
           <t>['Silver Nymph', 'Tiger', 'Moto', 'Silver Steel', 'Motomo', 'Hybrid Delhi']</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -794,6 +829,9 @@
           <t>['Dancing Lady', 'Aff Marsha', 'Hahnii Gaster']</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -824,6 +862,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -854,6 +895,9 @@
           <t>['Masoniana Yellow Variegated', 'Francisii White Variegated', 'Sulcata Yellow Variegated', 'Boncel Yellow Variegated']</t>
         </is>
       </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -884,6 +928,9 @@
           <t>['Cleopatra', 'Sindoro', 'Pagoda', 'Silver Crown5', 'Midnight Fountain', 'Nalika', 'Lobel Kenya', 'Andaman', 'Spoon Leaf']</t>
         </is>
       </c>
+      <c r="G15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -914,6 +961,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -944,6 +994,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -974,6 +1027,9 @@
           <t>['Sansevieria Pagoda Pup', 'Silver Boncel', 'Cleopatra', 'Francisii White Variegated']</t>
         </is>
       </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1004,6 +1060,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1034,6 +1093,9 @@
           <t>['Whitney', 'Silver Siam']</t>
         </is>
       </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1064,6 +1126,9 @@
           <t>['Moto', 'Lady Charm', 'Gracilis', 'Crocodile Rock', 'Silver Nymph', 'Silver Steel']</t>
         </is>
       </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1094,6 +1159,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1124,6 +1192,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1154,6 +1225,9 @@
           <t>['Arborescens', 'Bagamoyensis', 'Hybrid Delhi', 'Francisii']</t>
         </is>
       </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1184,6 +1258,9 @@
           <t>['Moto', 'Mini Boncel', 'Ballyi', 'Cylindrica', 'Hybrid Delhi', 'Francisii']</t>
         </is>
       </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1213,6 +1290,9 @@
         <is>
           <t>[]</t>
         </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1244,6 +1324,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1274,6 +1357,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1304,6 +1390,9 @@
           <t>['Mini Boncel', 'Pinguicula', 'Mini Ballyi']</t>
         </is>
       </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1334,6 +1423,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1364,6 +1456,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1394,6 +1489,9 @@
           <t>['Francisii Yellow Variegated', 'Francisii Green', 'Francisii White Variegated']</t>
         </is>
       </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1424,6 +1522,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1454,6 +1555,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1484,6 +1588,9 @@
           <t>['Baicularis', 'Fischeri', 'Canaliculata']</t>
         </is>
       </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1514,6 +1621,9 @@
           <t>['Subspicata', 'Moonshine', 'Superba', 'Zeylanica', 'Robusta']</t>
         </is>
       </c>
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1544,6 +1654,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1574,6 +1687,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1604,6 +1720,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1634,6 +1753,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1664,6 +1786,9 @@
           <t>['Midnight Fountain', 'Katana', 'Fernwood', 'Uganda Black', 'Silver Steel', 'Moto', 'Sulcata']</t>
         </is>
       </c>
+      <c r="G41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1694,6 +1819,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1724,6 +1852,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1754,6 +1885,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1784,6 +1918,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1814,6 +1951,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1844,6 +1984,9 @@
           <t>['Sulcata Var', 'Fern Wood', 'Pearsonii', 'Fischeri']</t>
         </is>
       </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1874,6 +2017,9 @@
           <t>['Black Gold Compacta', 'Lake Sibaya', 'Futura Gold']</t>
         </is>
       </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1904,6 +2050,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1934,6 +2083,9 @@
           <t>['Jade Marginata', 'Golden Hahnii', 'Twisted Sisters', 'Night Owl', 'Black Jade']</t>
         </is>
       </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1964,6 +2116,9 @@
           <t>['Subspicata', 'Nalika']</t>
         </is>
       </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1994,6 +2149,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2024,6 +2182,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2054,6 +2215,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2084,6 +2248,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2114,6 +2281,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2144,6 +2314,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2174,6 +2347,9 @@
           <t>['Gold Dust', 'Hi Color']</t>
         </is>
       </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2204,6 +2380,9 @@
           <t>['Star Dust', 'Phanphet', 'Tower', 'Ravana']</t>
         </is>
       </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2234,6 +2413,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2264,6 +2446,9 @@
           <t>['Pagoda', 'Nalika', 'Fighter', 'Sweet Celery', 'Tower', 'Lobel Kenya', 'Sindoro']</t>
         </is>
       </c>
+      <c r="G61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2294,6 +2479,9 @@
           <t>['Hawaiian Star', 'Patens', 'Fischeri', 'Katana']</t>
         </is>
       </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2324,6 +2512,9 @@
           <t>['Ballyi', 'Mini Ballyi']</t>
         </is>
       </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2354,6 +2545,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2384,6 +2578,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2414,6 +2611,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2444,6 +2644,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2474,6 +2677,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2504,6 +2710,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2534,6 +2743,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2564,6 +2776,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2594,6 +2809,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2624,6 +2842,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2654,6 +2875,9 @@
           <t>['Chao Pharya', 'Benthieng', 'Nakhon Luang']</t>
         </is>
       </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2684,6 +2908,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2714,6 +2941,9 @@
           <t>['Prima', 'Prabhu', 'Jatayu', 'Tower']</t>
         </is>
       </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2744,6 +2974,9 @@
           <t>['Sulcata Var', 'Fern Wood', 'Pearsonii', 'Fischeri']</t>
         </is>
       </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2774,6 +3007,9 @@
           <t>['Florida H13 Var', 'Uganda Black Var', 'Fernwood Var', 'Sulcata Var', 'Stella Var']</t>
         </is>
       </c>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2804,6 +3040,9 @@
           <t>['Cylindrica', 'Boncel', 'Uganda Black', 'Whalefine Green', 'Fernwood', 'Coppertone']</t>
         </is>
       </c>
+      <c r="G79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2834,6 +3073,9 @@
           <t>['Mutant Moonshine', 'Moonshine Variegated', 'Alslaam', 'Black Sword Aka Green Arrow', 'Nelsonni Banded']</t>
         </is>
       </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2864,6 +3106,9 @@
           <t>['Robo', 'Boncel Var', 'Platinum Cross', 'Marsha Anjani', 'Fighter', 'Nilin', 'Silver Boncel']</t>
         </is>
       </c>
+      <c r="G81" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2894,6 +3139,9 @@
           <t>['Aslaam', 'Moonshine Mutant', 'Nelsonii Banded', 'Green Arrow', 'Moonshine Var']</t>
         </is>
       </c>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2924,6 +3172,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2954,6 +3205,9 @@
           <t>['Sindoro', 'Silver Boncel', 'Boncel Ming Manee', 'Including Shipping']</t>
         </is>
       </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2984,6 +3238,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3014,6 +3271,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3044,6 +3304,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3074,6 +3337,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3104,6 +3370,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3134,6 +3403,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3164,6 +3436,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3194,6 +3469,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3224,6 +3502,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3254,6 +3535,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3284,6 +3568,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3314,6 +3601,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3344,6 +3634,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3374,6 +3667,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3404,6 +3700,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3434,6 +3733,9 @@
           <t>['Parbhu', 'Sindoro', 'Jatayu', 'Vienna', 'Lady Charm', 'Kitonga']</t>
         </is>
       </c>
+      <c r="G100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3464,6 +3766,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3494,6 +3799,9 @@
           <t>['Bao Dam', 'Adventus', 'Black Ants', 'Jatayu', 'Black Mlandi']</t>
         </is>
       </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3524,6 +3832,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3554,6 +3865,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3584,6 +3898,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3614,6 +3931,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3644,6 +3964,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3674,6 +3997,9 @@
           <t>['Green Arrow', 'Black Gold Compacta', 'Nelsonii Banded']</t>
         </is>
       </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3704,6 +4030,9 @@
           <t>['Star Dust', 'Sengukuni', 'Ravana', 'Phanphet']</t>
         </is>
       </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3734,6 +4063,9 @@
           <t>['Florida H13 Var', 'Uganda Black Var', 'Fernwood Var', 'Sulcata Var', 'Stella Var']</t>
         </is>
       </c>
+      <c r="G110" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3764,6 +4096,9 @@
           <t>['Aswathama', 'Sri Rama', 'Sinta Named On Goddness\xa0Seeta Of Ramayana', 'Jatayu', 'Ravana Ex Thailand', 'Prabhu', 'Rahwana Ex Indonesia And That', 'Sengkuni Or Shakuni Of Mahabharatha']</t>
         </is>
       </c>
+      <c r="G111" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3794,6 +4129,9 @@
           <t>['Erytherae', 'Fischeri', 'Patens', 'Sulcata', 'B10', 'Midnight Fountain']</t>
         </is>
       </c>
+      <c r="G112" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3824,6 +4162,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3854,6 +4195,9 @@
           <t>['Bao Dam', 'Adventus', 'Black Ants', 'Jatayu', 'Black Mlandi']</t>
         </is>
       </c>
+      <c r="G114" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3884,6 +4228,9 @@
           <t>['Sawasdee', 'Robo', 'Platinum Cross', 'Sindoro']</t>
         </is>
       </c>
+      <c r="G115" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3914,6 +4261,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3944,6 +4294,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3974,6 +4327,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4004,6 +4360,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4034,6 +4393,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4064,6 +4426,9 @@
           <t>['Sheila', 'Adventus', 'Rahwana', 'Maya']</t>
         </is>
       </c>
+      <c r="G121" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4094,6 +4459,9 @@
           <t>['Robo', 'Luna', 'Bao Dam', 'Star Gate']</t>
         </is>
       </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4124,6 +4492,9 @@
           <t>['Sinta', 'Ashwathama', 'Sengkuni', 'Prabu', 'Jatayu', 'Rahwana', 'Ravana']</t>
         </is>
       </c>
+      <c r="G123" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4154,6 +4525,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4184,6 +4558,9 @@
           <t>['Black Ants', 'Nelsonii Banded', 'Black Gold Compacta', 'Green Arrow', 'Moonshine Mutant']</t>
         </is>
       </c>
+      <c r="G125" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4214,6 +4591,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4244,6 +4624,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4274,6 +4657,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4304,6 +4690,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4334,6 +4723,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4364,6 +4756,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4394,6 +4789,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4424,6 +4822,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4454,6 +4855,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4484,6 +4888,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4514,6 +4921,9 @@
           <t>['Black Ants', 'Silver Boncelincluding Shipping']</t>
         </is>
       </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4544,6 +4954,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4574,6 +4987,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4604,6 +5020,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4634,6 +5053,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4664,6 +5086,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4694,6 +5119,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4724,6 +5152,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4754,6 +5185,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4784,6 +5218,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4814,6 +5251,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4844,6 +5284,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4874,6 +5317,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4904,6 +5350,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4934,6 +5383,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4964,6 +5416,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4994,6 +5449,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5024,6 +5482,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5054,6 +5515,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5084,6 +5548,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5114,6 +5581,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5144,6 +5614,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5174,6 +5647,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5204,6 +5680,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5234,6 +5713,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5264,6 +5746,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5294,6 +5779,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5324,6 +5812,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5354,6 +5845,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5384,6 +5878,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5414,6 +5911,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5444,6 +5944,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5474,6 +5977,9 @@
           <t>[]</t>
         </is>
       </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5503,6 +6009,9 @@
         <is>
           <t>[]</t>
         </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Week_03_Python_for_Development/Day_02_Regular_Expression_and_Text_Processing/Exercises/ex_02_fermosa_scraper/files/results.xlsx
+++ b/Week_03_Python_for_Development/Day_02_Regular_Expression_and_Text_Processing/Exercises/ex_02_fermosa_scraper/files/results.xlsx
@@ -531,22 +531,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (A)</t>
+          <t>Sansevieria Francisii</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Francisii</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -554,40 +554,40 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Boncel Small Size</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -617,22 +617,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (L)</t>
+          <t>Sansevieria Boncel Plantinum Cross</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Boncel Plantinum Cross</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-l</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum-cross</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -640,40 +640,40 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Silver Siam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Silver Princess</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Trifaciata Robusta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Gracilis Large</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -703,22 +703,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (B)</t>
+          <t>Sansevieria Boncel Plantinum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Boncel Plantinum</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -726,40 +726,40 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Motomo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -789,22 +789,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (H)</t>
+          <t>Sansevieria Manee</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Manee</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-h</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manee</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -812,40 +812,40 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Fischeri Singularis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Hybrid Delhi Large</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -875,22 +875,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 5 (D)</t>
+          <t>Sansevieria Rocker</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Rocker</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 5,000.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rocker</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -898,35 +898,35 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Patens</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Whalefin</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (K)</t>
+          <t>Sansevieria Pink Boncel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Pink Boncel</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-k</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-boncel</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -984,40 +984,40 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Parva</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Lady Charm Pup</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1047,22 +1047,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (F)</t>
+          <t>Sansevieria Meena</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Meena</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-10</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-meena</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -1070,40 +1070,40 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Parva</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Crocodile Rock</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1133,22 +1133,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (G)</t>
+          <t>Sansevieria Mini Gold</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Mini Gold</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-g</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-gold</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -1156,40 +1156,40 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Parva</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1219,22 +1219,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Princess Clump</t>
+          <t>Sansevieria Snow Boy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sansevieria Princess Siam</t>
+          <t>Sansevieria Snow Boy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 1,850.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-princess-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-snow-boy</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1305,22 +1305,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (C)</t>
+          <t>Sansevieria Fat Man</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Fat Man</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 1,450.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-8</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-man</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -1328,40 +1328,40 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Motomo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1391,22 +1391,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (N)</t>
+          <t>Sansevieria Ming Manee</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Ming Manee</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-n</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ming-manee</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -1414,25 +1414,25 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Dancing Lady</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Aff Marsha</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Hahnii Gaster</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1477,26 +1477,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower'</t>
+          <t>Sansevieria Ebracteata Variegated</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower'</t>
+          <t>Sansevieria Ebracteata Variegated</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 1,150.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata-variegated</t>
         </is>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (M)</t>
+          <t>Sansevieria Hybrid 'Jatayu'</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Hybrid 'Jatayu'</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-advance-combo-offer-of-10-m</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-jatayu</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Masoniana Yellow Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Francisii White Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Sulcata Yellow Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Boncel Yellow Variegate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1649,12 +1649,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Combo #103 (10 Sansevieria)</t>
+          <t>Sansevieria Moonshine Mutant</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Moonshine Mutant</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-103-10-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moonshine-mutant</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -1672,60 +1672,60 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Cleopatra</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Pagoda</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Silver Crown</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Nalika</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Lobel Kenya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Andaman</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Spoon Leaf</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1735,22 +1735,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Yellow Variegated (Single Leaf)</t>
+          <t>Sansevieria Samurai Variegated (B)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Variegated</t>
+          <t>Sansevieria Samurai Variegated</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-ballyi</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-b</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1821,30 +1821,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sansevieria Gracilis Clump</t>
+          <t>Sansevieria Blue Leaf Variegated (B)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sansevieria Gracilis</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-gracilis-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-b</t>
         </is>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1907,53 +1907,53 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (P)</t>
+          <t>Sansevieria Blue Leaf Variegated (A)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-p</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-a</t>
         </is>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Sansevieria Pagoda Pup</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Silver Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Cleopatra</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Francisii White Variegate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1993,22 +1993,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Delhi</t>
+          <t>Sansevieria Hybrid 'Nilin'</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Delhi</t>
+          <t>Sansevieria Hybrid Nilin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-delhi</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-nilin</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -2079,43 +2079,43 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 2 (Q)</t>
+          <t>Sansevieria Pinguicula Variegated (Small)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Pinguicula Variegated</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 5,500.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-o</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/pinguicula-variegated-small</t>
         </is>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Whitney</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Silver Siam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2165,63 +2165,63 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (J)</t>
+          <t>Sansevieria Lavranos 23251 Variegated (Large)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Lavranos 23251 Variegated</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-j</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lavranos-23251-variegated-large</t>
         </is>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Lady Charm</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Crocodile Rock</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2251,30 +2251,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sansevieria Whale Fin Green (Single Leaf)</t>
+          <t>Sansevieria Francisii White Variegated</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana</t>
+          <t>Sansevieria Francisii White Variegated</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-green-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-variegated</t>
         </is>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2337,22 +2337,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Futura Gold'</t>
+          <t>Sansevieria Twister Clump</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Futura Gold'</t>
+          <t>Sansevieria Twister</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 550.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-futura-gold</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-twister-clump</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (I)</t>
+          <t>Sansevieria Boncel</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Boncel</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-i</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -2446,30 +2446,30 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Arborescens</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Bagamoyensis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Francisi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2509,22 +2509,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (E)</t>
+          <t>Sansevieria Subspicata</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Subspicata</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 275.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-9</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-subspicata</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -2532,40 +2532,40 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Ballyi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2595,22 +2595,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Siam Clump</t>
+          <t>#118 Sansevieria Combo Of 2 Plants</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Siam</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-siam-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/118-sansevieria-combo-of-2-plants</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -2618,20 +2618,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gold Dust</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hi Color</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2681,22 +2681,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sansevieria Whale Fin Yellow Border (Single Leaf)</t>
+          <t>Combo #105 (Combo Of 4 Plants)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-yellow-border-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-105-combo-of-4-plants</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -2704,30 +2704,30 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Star Dust</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Phanphet</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ravana</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2767,22 +2767,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sansevieria Mini Boncel</t>
+          <t>Sansevieria Violet</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sansevieria Mini Boncel</t>
+          <t>Sansevieria Violet</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 775.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-violet</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (S)</t>
+          <t>Sansevieria Combo Of 7 Different</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2863,12 +2863,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rs. 399.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-s</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-7-different</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -2880,41 +2880,41 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>Pagoda</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Pinguicula</t>
+          <t>Nalika</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Mini Ballyi</t>
+          <t>Fighter</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sweet Celery</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lobel Kenya</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2939,22 +2939,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sansevieria Hu-Chang</t>
+          <t>Sansevieria Combo Of 4 Plants</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sansevieria Hu-Chang</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hu-chang</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-4-plants</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -2962,30 +2962,30 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hawaiian Star</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Patens</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Katana</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3025,22 +3025,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sansevieria Fernwood Clump</t>
+          <t>Sansevieria Combo Offer Of 2 (R)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sansevieria Fernwood</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 249.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fernwood-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-r</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -3048,20 +3048,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ballyi</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Ballyi</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3111,22 +3111,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii Combo Of 3</t>
+          <t>Sansevieria Sp Somalia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Sp Somalia</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 3,000.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-combo-of-3</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sp-somalia</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -3134,25 +3134,25 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Francisii Yellow Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Francisii Green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Francisii White Variegate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3197,30 +3197,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sansevieria Crocodile Rock Clump</t>
+          <t>Sansevieria Rorida Variegated</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sansevieria Crocodile Rock</t>
+          <t>Rorida</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 8,000.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-crocodile-rock-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida-variegated</t>
         </is>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3283,26 +3283,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sansevieria Brazillian Moonshine</t>
+          <t>Sansevieria Blue Leaf Variegated (Large)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brazillian Moonshine</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rs. 599.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-brazillian-moonshine</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-variegated-large</t>
         </is>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3369,22 +3369,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (Z)</t>
+          <t>Sansevieria Trifaciata 'Aslaam'</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Trifaciata 'Aslaam'</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rs. 550.00</t>
+          <t>Rs. 1,150.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-z</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-aslaam</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -3392,25 +3392,25 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Baicularis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Canaliculata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3455,22 +3455,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 5 (T)</t>
+          <t>Sansevieria 'Oil Plastic'</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Trifasciata 'Lillian True'</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 1,100.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5-t</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-oil-plastic</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -3478,35 +3478,35 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Moonshine</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Superba</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Zeylanica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Robusta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3541,22 +3541,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sansevieria Iceman</t>
+          <t>Sansevieria Boncel (Small)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sansevieria Iceman</t>
+          <t>Sansevieria Boncel</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-iceman</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-small</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -3627,22 +3627,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sansevieria Kirkii Silver Blue</t>
+          <t>Sansevieria Trifaciata Laurentii</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sansevieria Kirkii Silver Blue</t>
+          <t>Sansevieria Trifaciata Laurentii</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rs. 300.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kirkii-silver-blue</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-laurentii</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -3713,22 +3713,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower' Pup</t>
+          <t>Sansevieria Ebracteata</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower'</t>
+          <t>Sansevieria Ebracteata</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3799,26 +3799,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sansevieria Trifasciata 'Ghost'</t>
+          <t>Sansevieria Joboa Variegated</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sansevieria Ghost</t>
+          <t>Sansevieria Joboa Variegated</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rs. 525.00</t>
+          <t>Rs. 2,000.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ghost</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-joboa-variegated</t>
         </is>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 7 (V)</t>
+          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7-v</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants-1</t>
         </is>
       </c>
       <c r="F41" t="b">
@@ -3908,45 +3908,45 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Katana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Uganda Black</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Sulcata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3971,48 +3971,48 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Yellow Variegated (Tall Variety)</t>
+          <t>#119 Combo Of 3 Sansevieria</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,650.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-yellow-variegated-tall-variety</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-3-sansevieria</t>
         </is>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Chao Pharya</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Benthieng</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nakhon Luang</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4057,22 +4057,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Boncel</t>
+          <t>Sansevieria Chao Pharya</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Boncel</t>
+          <t>Sansevieria Chao Pharya</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rs. 300.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -4143,22 +4143,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Robusta Clump</t>
+          <t>#116 Combo Of 4 Popular Indonesian Hybrids</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Robusta</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-robusta-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/116-combo-of-4-popular-indonesian-hybrids</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -4166,30 +4166,30 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Prima</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Prabhu</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4229,22 +4229,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sansevieria Pagoda</t>
+          <t>#115 Combo Of 4 Large Sansevieria</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Pagoda</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pagoda</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria-1</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -4252,30 +4252,30 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata Var</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fern Wood</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pearsonii</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4315,22 +4315,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sansevieria Sulcata Variegated</t>
+          <t>Sansevieria Combo (X) Offer Of 5 Variegated Sansevieria</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sansevieria Sulcata Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 1,550.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sulcata-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -4338,35 +4338,35 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Florida H13 Var</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Uganda Black Var</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood Var</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata Var</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Stella Var</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#115 Combo Of 4 Large Sansevieria</t>
+          <t>Sansevieria Combo Offer Of 6 (W)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 525.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-w</t>
         </is>
       </c>
       <c r="F47" t="b">
@@ -4428,36 +4428,36 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Sulcata Var</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Fern Wood</t>
+          <t>Boncel</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Pearsonii</t>
+          <t>Uganda Black</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>Whalefine Green</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (O)</t>
+          <t>#112 Combo Of Five Rare Sansevieria Trifasciata Of New Generation</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rs. 1,200.00</t>
+          <t>Rs. 2,500.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-o</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/112-combo-of-5-large-sansevieria</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -4514,31 +4514,31 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>Mutant Moonshine</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Lake Sibaya</t>
+          <t>Moonshine Variegated</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Futura Gold</t>
+          <t>Alslaam</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Sword Aka Green Arrow</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nelsonni Banded</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4573,22 +4573,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Nymph Clump</t>
+          <t>#110 Sansevieria Combo Of 7 Plants</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Nymph</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-nymph-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/110-sansevieria-combo-of-7-plants</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -4596,45 +4596,45 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Robo</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Boncel Var</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Platinum Cross</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Marsha Anjani</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fighter</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nilin</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Boncel</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>#117 Sansevieria Combo Offer Of 5</t>
+          <t>Combo #104 ( Combo Of 5 Sansevieria Mature Pups)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4669,12 +4669,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 2,000.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/117-sansevieria-combo-offer-of-5</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-104-combo-of-5-sansevieria-mature-pups</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -4690,27 +4690,27 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Jade Marginata</t>
+          <t>Aslaam</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Golden Hahnii</t>
+          <t>Moonshine Mutant</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Twisted Sisters</t>
+          <t>Nelsonii Banded</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Night Owl</t>
+          <t>Green Arrow</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Black Jade</t>
+          <t>Moonshine Var</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4745,22 +4745,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 2 Beautiful Plants</t>
+          <t>Black Gold Compacta</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Black Gold Compacta</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 475.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/black-gold-compacta</t>
         </is>
       </c>
       <c r="F51" t="b">
@@ -4768,20 +4768,20 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Nalika</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4831,48 +4831,48 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sansevieria Pinguicula Variegated (Small)</t>
+          <t>Sansevieria Combo Of 3 Beautiful Plants</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sansevieria Pinguicula Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Rs. 5,500.00</t>
+          <t>Rs. 675.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/pinguicula-variegated-small</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-3-beautiful-plants</t>
         </is>
       </c>
       <c r="F52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Boncel</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Boncel Ming Manee</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4917,22 +4917,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sansevieria Lavranos 23251 Variegated (Large)</t>
+          <t>Sansevieria Masoniana White Variegated (Single Leaf)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sansevieria Lavranos 23251 Variegated</t>
+          <t>Sansevieria Masoniana Variegated</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 499.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lavranos-23251-variegated-large</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-white-variegated-single-leaf</t>
         </is>
       </c>
       <c r="F53" t="b">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -5003,26 +5003,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii White Variegated</t>
+          <t>Sansevieria Rorida</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii White Variegated</t>
+          <t>Rorida</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 1,300.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida</t>
         </is>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5089,22 +5089,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sansevieria Twister Clump</t>
+          <t>Sansevieria 'Stardust'</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sansevieria Twister</t>
+          <t>Sansevieria 'Stardust'</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rs. 550.00</t>
+          <t>Rs. 2,750.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-twister-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-stardust</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -5175,22 +5175,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel</t>
+          <t>Sansevieria Ballyi</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel</t>
+          <t>Sansevieria Ballyi</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ballyi</t>
         </is>
       </c>
       <c r="F56" t="b">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sansevieria Subspicata</t>
+          <t>Sansevieria Silver Crown</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sansevieria Subspicata</t>
+          <t>Sansevieria Silver Crown</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-subspicata</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-silver-crown</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -5347,22 +5347,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#118 Sansevieria Combo Of 2 Plants</t>
+          <t>Sansevieria Moose</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Moose</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 275.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/118-sansevieria-combo-of-2-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moose-1</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -5370,20 +5370,20 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Gold Dust</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Hi Color</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -5433,53 +5433,53 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Combo #105 (Combo Of 4 Plants)</t>
+          <t>Sansevieria Boncel Variegated (B)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Boncel Variegated</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 800.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-105-combo-of-4-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-boncel-variegated-b</t>
         </is>
       </c>
       <c r="F59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Star Dust</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Phanphet</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Ravana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -5519,26 +5519,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sansevieria Violet</t>
+          <t>Sansevieria Boncel Variegated (A)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sansevieria Violet</t>
+          <t>Sansevieria Boncel Variegated</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Rs. 775.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-violet</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-variegated-a</t>
         </is>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5605,22 +5605,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 7 Different</t>
+          <t>Sansevieria Cleopatra</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Cleopatra</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-7-different</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cleopatra</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -5628,45 +5628,45 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Pagoda</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Nalika</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Fighter</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Sweet Celery</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Lobel Kenya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -5691,22 +5691,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 4 Plants</t>
+          <t>Sansevieria Moto Clump</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Moto</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-4-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moto-clump</t>
         </is>
       </c>
       <c r="F62" t="b">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Hawaiian Star</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Patens</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Katana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5777,43 +5777,43 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 2 (R)</t>
+          <t>Sansevieria Samurai Variegated (A)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Samurai Variegated</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rs. 249.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-r</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-a</t>
         </is>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Ballyi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Mini Ballyi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5863,26 +5863,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sansevieria Sp Somalia</t>
+          <t>Sansevieria Blue Leaf Variegated (D)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sansevieria Sp Somalia</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rs. 3,000.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sp-somalia</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-d</t>
         </is>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -5949,22 +5949,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sansevieria Rorida Variegated</t>
+          <t>Sansevieria Blue Leaf Variegated (C)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Rorida</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Rs. 8,000.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-c</t>
         </is>
       </c>
       <c r="F65" t="b">
@@ -6035,30 +6035,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (Large)</t>
+          <t>Sansevieria Hybrid 'Nilin' Pup</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria Hybrid Nilin</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 500.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-variegated-large</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-nilin-pup</t>
         </is>
       </c>
       <c r="F66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -6121,22 +6121,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Aslaam'</t>
+          <t>Sansevieria Hybrid Lobal Kenya</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Trifaciata 'Aslaam'</t>
+          <t>Sansevieria Hybrid Lobal Kenya</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rs. 1,150.00</t>
+          <t>Rs. 499.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-aslaam</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lobal-kenya</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -6207,22 +6207,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sansevieria 'Oil Plastic'</t>
+          <t>#120 Combo Of 6 Sansevieria</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sansevieria Trifasciata 'Lillian True'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-oil-plastic</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/120-combo-of-6-sansevieria</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -6230,40 +6230,40 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Parbhu</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lady Charm</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kitonga</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -6293,22 +6293,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel (Small)</t>
+          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel</t>
+          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-small</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Laurentii</t>
+          <t>#119 Combo Of 5 Sansevieria</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Laurentii</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 1,150.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-laurentii</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-5-sansevieria</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -6402,35 +6402,35 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Bao Dam</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Adventus</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Ants</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Mlandi</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6465,26 +6465,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sansevieria Ebracteata</t>
+          <t>Sansevieria Cordova Variegated</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sansevieria Ebracteata</t>
+          <t>Cordova Variegated</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cordova-variegated</t>
         </is>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -6551,26 +6551,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sansevieria Joboa Variegated</t>
+          <t>Sansevieria Chao Pharya Large Plant</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sansevieria Joboa Variegated</t>
+          <t>Sansevieria Chao Pharya</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-joboa-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant-1</t>
         </is>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -6637,22 +6637,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
+          <t>Sansevieria Cinta Large Plant</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
+          <t>Sansevieria Cinta Large Plant</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 2,299.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cinta-large-plant</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -6723,22 +6723,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>#119 Combo Of 3 Sansevieria</t>
+          <t>Sansevieria Chao Pharya Large Plant</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Chao Pharya</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>Rs. 1,500.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-3-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -6746,25 +6746,25 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Chao Pharya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Benthieng</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nakhon Luang</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6809,22 +6809,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya</t>
+          <t>Sansevieria Flamingo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya</t>
+          <t>Sansevieria Flamingo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-flamingo</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>#116 Combo Of 4 Popular Indonesian Hybrids</t>
+          <t>#114 Combo Of 3 Sanseveria</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 1,199.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/116-combo-of-4-popular-indonesian-hybrids</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/114-combo-of-3-sanseveria</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -6922,26 +6922,26 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Prima</t>
+          <t>Green Arrow</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Prabhu</t>
+          <t>Black Gold Compacta</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>Nelsonii Banded</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>#115 Combo Of 4 Large Sansevieria</t>
+          <t>Sansevieria Combo Offer Of 4 (Y)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6991,12 +6991,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-y</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -7012,22 +7012,22 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Sulcata Var</t>
+          <t>Star Dust</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Fern Wood</t>
+          <t>Sengukuni</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Pearsonii</t>
+          <t>Ravana</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>Phanphet</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -7077,12 +7077,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Rs. 1,550.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria-1</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (W)</t>
+          <t>Combo Of Eight Indonesian Hybrids Of Sansevieria Named On Hindu Gods And Godesses And From Hindu Mythology</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7163,12 +7163,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Rs. 525.00</t>
+          <t>Rs. 2,999.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-w</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-of-eight-indonesian-hybrids-of-sansevieria-named-on-hindu-gods</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -7180,46 +7180,46 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>Aswathama</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Boncel</t>
+          <t>Sri Rama</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Uganda Black</t>
+          <t>Sinta Named On Goddness Seeta Of Ramayana</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Whalefine Green</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>Ravana Ex Thailand</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>Prabhu</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Rahwana Ex Indonesia And That</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sengkuni Or Shakuni Of Mahabharatha</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>#112 Combo Of Five Rare Sansevieria Trifasciata Of New Generation</t>
+          <t>Sansevieria Combo Offer Of 6 (U)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7249,12 +7249,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Rs. 2,500.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/112-combo-of-5-large-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-u</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -7266,36 +7266,36 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Mutant Moonshine</t>
+          <t>Erytherae</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Moonshine Variegated</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Alslaam</t>
+          <t>Patens</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Black Sword Aka Green Arrow</t>
+          <t>Sulcata</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Nelsonni Banded</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -7325,22 +7325,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>#110 Sansevieria Combo Of 7 Plants</t>
+          <t>S. Craigii True Form</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Craigii</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/110-sansevieria-combo-of-7-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/s-craigii-true-form</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -7348,45 +7348,45 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Robo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Boncel Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Platinum Cross</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Marsha Anjani</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Fighter</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Nilin</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Silver Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Combo #104 ( Combo Of 5 Sansevieria Mature Pups)</t>
+          <t>Combo #113 Combo Of 5 Sansevieria</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-104-combo-of-5-sansevieria-mature-pups</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-113-combo-of-5-sansevieria</t>
         </is>
       </c>
       <c r="F82" t="b">
@@ -7442,27 +7442,27 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Aslaam</t>
+          <t>Bao Dam</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Moonshine Mutant</t>
+          <t>Adventus</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nelsonii Banded</t>
+          <t>Black Ants</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Green Arrow</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Moonshine Var</t>
+          <t>Black Mlandi</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7497,22 +7497,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>#111 Sansevieria Combo Of 4 Plants</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Rs. 475.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/black-gold-compacta</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/111-sansevieria-combo-of-4-plants</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -7520,30 +7520,30 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sawasdee</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Robo</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Platinum Cross</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -7583,22 +7583,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 3 Beautiful Plants</t>
+          <t>Sansevieria Manjha</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Manjha</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Rs. 675.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-3-beautiful-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manjha</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -7606,25 +7606,25 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Silver Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Boncel Ming Manee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -7669,22 +7669,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana White Variegated (Single Leaf)</t>
+          <t>S. Lake Sibaya Variegated</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Variegated</t>
+          <t>Sansevieria Lakesibaya Variegated</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-white-variegated-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/s-lake-sibaya-variegated</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -7755,22 +7755,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sansevieria Rorida</t>
+          <t>Sansevieria Juleha</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Rorida</t>
+          <t>Sansevieria Juleha</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Rs. 1,300.00</t>
+          <t>Rs. 1,799.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-juleha</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -7841,22 +7841,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sansevieria 'Stardust'</t>
+          <t>Moonshine Var Pup</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Sansevieria 'Stardust'</t>
+          <t>Moonshine Var Pup</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Rs. 2,750.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-stardust</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-var-pup</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -7927,22 +7927,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sansevieria Ballyi</t>
+          <t>Moonshine Mutant Pup</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sansevieria Ballyi</t>
+          <t>Moonshine Mutant Pup</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ballyi</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant-pup</t>
         </is>
       </c>
       <c r="F88" t="b">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -8013,22 +8013,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Crown</t>
+          <t>Combo #107 ( Combo Of 4 Plants)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Crown</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Rs. 275.00</t>
+          <t>Rs. 1,650.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-silver-crown</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-107-combo-of-4-plants</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -8036,30 +8036,30 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sheila</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Adventus</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Rahwana</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -8099,22 +8099,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sansevieria Moose</t>
+          <t>Combo #106 (4 Beautiful Sansevieria)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sansevieria Moose</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Rs. 275.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moose-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-106-4-beautiful-sansevieria</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -8122,30 +8122,30 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Robo</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Luna</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Bao Dam</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Star Gate</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -8185,68 +8185,68 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Variegated (B)</t>
+          <t>Seven High Value Sansevieria Plants As Combo</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Rs. 800.00</t>
+          <t>Rs. 3,450.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-boncel-variegated-b</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/seven-high-value-sansevieria-plants-as-combo</t>
         </is>
       </c>
       <c r="F91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sinta</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ashwathama</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sengkuni</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Prabu</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Rahwana</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ravana</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -8271,22 +8271,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Variegated (A)</t>
+          <t>Sansevieria Francissi Variegated</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Variegated</t>
+          <t>Sansevieria Francissi Variegated Small</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-variegated-a</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francissi-variegated</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -8357,22 +8357,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sansevieria Cleopatra</t>
+          <t>Combo #102 (5 Beautiful Sansevieria Pups)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sansevieria Cleopatra</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,850.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cleopatra</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-102-5-beautiful-sansevieria-pups</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -8380,35 +8380,35 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Ants</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nelsonii Banded</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Gold Compacta</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Green Arrow</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moonshine Mutant</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8443,22 +8443,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sansevieria Moto Clump</t>
+          <t>Sansevieria Silver Laurantii</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sansevieria Moto</t>
+          <t>Sansevieria Silver Laurantii</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 1,650.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moto-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-laurantii-nbsp</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -8529,30 +8529,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sansevieria Samurai Variegated (A)</t>
+          <t>Sansevieria Whale Fin Yellow Border (Single Leaf)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sansevieria Samurai Variegated</t>
+          <t>Sansevieria Masoniana</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-a</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-yellow-border-single-leaf</t>
         </is>
       </c>
       <c r="F95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -8615,26 +8615,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (D)</t>
+          <t>Sansevieria Mini Boncel</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria Mini Boncel</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-d</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-boncel</t>
         </is>
       </c>
       <c r="F96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -8701,48 +8701,48 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (C)</t>
+          <t>Sansevieria Combo Offer Of 3 (S)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 399.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-c</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-s</t>
         </is>
       </c>
       <c r="F97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pinguicula</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Ballyi</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8787,22 +8787,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Nilin' Pup</t>
+          <t>Sansevieria Hu-Chang</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Nilin</t>
+          <t>Sansevieria Hu-Chang</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Rs. 500.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-nilin-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hu-chang</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -8873,22 +8873,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Lobal Kenya</t>
+          <t>Sansevieria Fernwood Clump</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Lobal Kenya</t>
+          <t>Sansevieria Fernwood</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lobal-kenya</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fernwood-clump</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>#120 Combo Of 6 Sansevieria</t>
+          <t>Sansevieria Francisii Combo Of 3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -8969,12 +8969,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/120-combo-of-6-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-combo-of-3</t>
         </is>
       </c>
       <c r="F100" t="b">
@@ -8986,36 +8986,36 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Parbhu</t>
+          <t>Francisii Yellow Variegated</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>Francisii Green</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>Francisii White Variegate</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Lady Charm</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Kitonga</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -9045,22 +9045,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
+          <t>Sansevieria Crocodile Rock Clump</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
+          <t>Sansevieria Crocodile Rock</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-crocodile-rock-clump</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -9131,22 +9131,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>#119 Combo Of 5 Sansevieria</t>
+          <t>Sansevieria Brazillian Moonshine</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Brazillian Moonshine</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Rs. 1,150.00</t>
+          <t>Rs. 599.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-5-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-brazillian-moonshine</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -9154,35 +9154,35 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Bao Dam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Adventus</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Black Ants</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Black Mlandi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -9217,48 +9217,48 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sansevieria Cordova Variegated</t>
+          <t>Sansevieria Combo Offer Of 3 (Z)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Cordova Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 550.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cordova-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-z</t>
         </is>
       </c>
       <c r="F103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Baicularis</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Canaliculata</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -9303,22 +9303,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya Large Plant</t>
+          <t>Sansevieria Combo Offer Of 5 (T)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5-t</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -9326,35 +9326,35 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moonshine</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Superba</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Zeylanica</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Robusta</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -9389,22 +9389,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sansevieria Cinta Large Plant</t>
+          <t>Sansevieria Iceman</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sansevieria Cinta Large Plant</t>
+          <t>Sansevieria Iceman</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Rs. 2,299.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cinta-large-plant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-iceman</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -9475,22 +9475,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya Large Plant</t>
+          <t>Sansevieria Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya</t>
+          <t>Sansevieria Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Rs. 1,500.00</t>
+          <t>Rs. 300.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kirkii-silver-blue</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -9561,22 +9561,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Sansevieria Flamingo</t>
+          <t>Sansevieria Hybrid 'Tower' Pup</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sansevieria Flamingo</t>
+          <t>Sansevieria Hybrid 'Tower'</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-flamingo</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower-pup</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -9647,22 +9647,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>#114 Combo Of 3 Sanseveria</t>
+          <t>Sansevieria Trifasciata 'Ghost'</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Ghost</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Rs. 1,199.00</t>
+          <t>Rs. 525.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/114-combo-of-3-sanseveria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ghost</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -9670,25 +9670,25 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Green Arrow</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Nelsonii Banded</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -9733,7 +9733,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (Y)</t>
+          <t>Sansevieria Combo Offer Of 7 (V)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -9743,12 +9743,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-y</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7-v</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -9760,41 +9760,41 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Star Dust</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Sengukuni</t>
+          <t>Katana</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Ravana</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Phanphet</t>
+          <t>Uganda Black</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -9819,22 +9819,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sansevieria Combo (X) Offer Of 5 Variegated Sansevieria</t>
+          <t>Sansevieria Masoniana Yellow Variegated (Tall Variety)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Masoniana Variegated</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-yellow-variegated-tall-variety</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -9842,35 +9842,35 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Florida H13 Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uganda Black Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Fernwood Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Sulcata Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Stella Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -9905,22 +9905,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Combo Of Eight Indonesian Hybrids Of Sansevieria Named On Hindu Gods And Godesses And From Hindu Mythology</t>
+          <t>Sansevieria Silver Boncel</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Silver Boncel</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Rs. 2,999.00</t>
+          <t>Rs. 300.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-of-eight-indonesian-hybrids-of-sansevieria-named-on-hindu-gods</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-boncel</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -9928,50 +9928,50 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Aswathama</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Sri Rama</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Sinta Named On Goddness Seeta Of Ramayana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Ravana Ex Thailand</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Prabhu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Rahwana Ex Indonesia And That</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Sengkuni Or Shakuni Of Mahabharatha</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -9991,22 +9991,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (U)</t>
+          <t>Sansevieria Trifaciata Robusta Clump</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Trifaciata Robusta</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-u</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-robusta-clump</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -10014,40 +10014,40 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Erytherae</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Patens</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Sulcata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -10077,22 +10077,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>S. Craigii True Form</t>
+          <t>Sansevieria Pagoda</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sansevieria Craigii</t>
+          <t>Sansevieria Hybrid Pagoda</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/s-craigii-true-form</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pagoda</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -10163,58 +10163,58 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Combo #113 Combo Of 5 Sansevieria</t>
+          <t>Sansevieria Sulcata Variegated</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Sulcata Variegated</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-113-combo-of-5-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sulcata-variegated</t>
         </is>
       </c>
       <c r="F114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Bao Dam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Adventus</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Black Ants</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Black Mlandi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -10249,7 +10249,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>#111 Sansevieria Combo Of 4 Plants</t>
+          <t>#115 Combo Of 4 Large Sansevieria</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -10259,12 +10259,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/111-sansevieria-combo-of-4-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -10280,22 +10280,22 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Sawasdee</t>
+          <t>Sulcata Var</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Robo</t>
+          <t>Fern Wood</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Platinum Cross</t>
+          <t>Pearsonii</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -10335,22 +10335,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sansevieria Manjha</t>
+          <t>Sansevieria Combo Offer Of 3 (O)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sansevieria Manjha</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 1,200.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manjha</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-o</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -10358,25 +10358,25 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Gold Compacta</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lake Sibaya</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Futura Gold</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -10421,30 +10421,30 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>S. Lake Sibaya Variegated</t>
+          <t>Sansevieria Silver Nymph Clump</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sansevieria Lakesibaya Variegated</t>
+          <t>Sansevieria Silver Nymph</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/s-lake-sibaya-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-nymph-clump</t>
         </is>
       </c>
       <c r="F117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -10507,22 +10507,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Sansevieria Juleha</t>
+          <t>#117 Sansevieria Combo Offer Of 5</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sansevieria Juleha</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Rs. 1,799.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-juleha</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/117-sansevieria-combo-offer-of-5</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -10530,35 +10530,35 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jade Marginata</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Golden Hahnii</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Twisted Sisters</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Night Owl</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Jade</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -10593,22 +10593,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Moonshine Var Pup</t>
+          <t>Sansevieria Combo Of 2 Beautiful Plants</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Moonshine Var Pup</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-var-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -10616,20 +10616,20 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nalika</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10679,22 +10679,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Moonshine Mutant Pup</t>
+          <t>Sansevieria Combo Offer Of 6 (A)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Moonshine Mutant Pup</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -10702,40 +10702,40 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Boncel Small Size</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Combo #107 ( Combo Of 4 Plants)</t>
+          <t>Sansevieria Combo Offer Of 6 (L)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -10775,12 +10775,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-107-combo-of-4-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-l</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -10792,36 +10792,36 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Sheila</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Adventus</t>
+          <t>Silver Siam</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Rahwana</t>
+          <t>Silver Princess</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>Trifaciata Robusta</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis Large</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Combo #106 (4 Beautiful Sansevieria)</t>
+          <t>Sansevieria Combo Offer Of 6 (B)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -10861,12 +10861,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-106-4-beautiful-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -10878,36 +10878,36 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Robo</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Luna</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Bao Dam</t>
+          <t>Motomo</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Star Gate</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Seven High Value Sansevieria Plants As Combo</t>
+          <t>Sansevieria Combo Offer Of 6 (H)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -10947,12 +10947,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Rs. 3,450.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/seven-high-value-sansevieria-plants-as-combo</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-h</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -10964,41 +10964,41 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Sinta</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Ashwathama</t>
+          <t>Fischeri Singularis</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Sengkuni</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Prabu</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>Hybrid Delhi Large</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Rahwana</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Ravana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -11023,58 +11023,58 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sansevieria Francissi Variegated</t>
+          <t>Sansevieria Combo Offer Of 5 (D)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sansevieria Francissi Variegated Small</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francissi-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5</t>
         </is>
       </c>
       <c r="F124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Patens</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Whalefin</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Combo #102 (5 Beautiful Sansevieria Pups)</t>
+          <t>Sansevieria Combo Offer Of 6 (K)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -11119,12 +11119,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Rs. 1,850.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-102-5-beautiful-sansevieria-pups</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-k</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -11136,36 +11136,36 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Black Ants</t>
+          <t>Parva</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Nelsonii Banded</t>
+          <t>Lady Charm Pup</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Green Arrow</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Moonshine Mutant</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -11195,22 +11195,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Laurantii</t>
+          <t>Sansevieria Combo Offer Of 6 (F)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Laurantii</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-laurantii-nbsp</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-10</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -11218,40 +11218,40 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Parva</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Crocodile Rock</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -11281,22 +11281,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sansevieria Green Mermaid Pup</t>
+          <t>Sansevieria Combo Offer Of 6 (G)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sansevieria Green Mermaid Pup</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Rs. 1,950.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-green-mermaid</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-g</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -11304,40 +11304,40 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Parva</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -11367,22 +11367,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sansevieria Irish Bella</t>
+          <t>Sansevieria Silver Princess Clump</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Sansevieria Irish Bella</t>
+          <t>Sansevieria Princess Siam</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Rs. 1,350.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-irish-bella</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-princess-clump</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -11453,22 +11453,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>S. Dragon Scales</t>
+          <t>Sansevieria Combo Offer Of 6 (C)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>S. Dragon Scales</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/s-dragon-scales</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-8</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -11476,40 +11476,40 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Motomo</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -11539,22 +11539,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sansevieria Fighter Large Pup</t>
+          <t>Sansevieria Combo Offer Of 3 (N)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Sansevieria Fighter Large Pup</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>Rs. 1,000.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fighter-large-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-n</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -11562,25 +11562,25 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Dancing Lady</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Aff Marsha</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hahnii Gaster</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -11625,22 +11625,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Sulfer</t>
+          <t>Sansevieria Hybrid 'Tower'</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Sulfer Large</t>
+          <t>Sansevieria Hybrid 'Tower'</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Rs. 799.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-sulfer</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower</t>
         </is>
       </c>
       <c r="F131" t="b">
@@ -11711,22 +11711,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sansevieria Rahwana Large</t>
+          <t>Sansevieria Combo Offer Of 4 (M)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sansevieria Rahwana Large</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rahwana-large</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-advance-combo-offer-of-10-m</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -11734,30 +11734,30 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Masoniana Yellow Variegated</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii White Variegated</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata Yellow Variegated</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Boncel Yellow Variegate</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -11797,12 +11797,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sansevieria Kesya</t>
+          <t>Combo #103 (10 Sansevieria)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sansevieria Kesya Large</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -11812,7 +11812,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kesya</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-103-10-sansevieria</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -11820,60 +11820,60 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cleopatra</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pagoda</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Crown</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nalika</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lobel Kenya</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Andaman</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Spoon Leaf</t>
         </is>
       </c>
     </row>
@@ -11883,30 +11883,30 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sansevieria Argopuro With Mature Pup</t>
+          <t>Sansevieria Masoniana Yellow Variegated (Single Leaf)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Sansevieria Argopuro With Mature Pup</t>
+          <t>Sansevieria Masoniana Variegated</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Rs. 1,500.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-argopuro-with-mature-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-ballyi</t>
         </is>
       </c>
       <c r="F134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -11969,22 +11969,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sansevieria Bella Silver</t>
+          <t>Sansevieria Gracilis Clump</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sansevieria Bella Silver Large Plant</t>
+          <t>Sansevieria Gracilis</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-bella-silver</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-gracilis-clump</t>
         </is>
       </c>
       <c r="F135" t="b">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 2 Beautiful Plants Black Ants And Silver Boncel</t>
+          <t>Sansevieria Combo Offer Of 4 (P)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -12065,12 +12065,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 1,000.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants-black-ants-and-silver-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-p</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -12082,11 +12082,11 @@
         </is>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Black Ants</t>
+          <t>Sansevieria Pagoda Pup</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -12096,12 +12096,12 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cleopatra</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii White Variegate</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -12141,22 +12141,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Moonshine Mutant</t>
+          <t>Sansevieria Hybrid Delhi</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Moonshine Mutant</t>
+          <t>Sansevieria Hybrid Delhi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-delhi</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -12227,22 +12227,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sansevieria Hahnii Gaster</t>
+          <t>Sansevieria Combo Offer Of 2 (Q)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sansevieria Hahnii Gaster</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hahnii-gaster</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-o</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -12250,20 +12250,20 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Whitney</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Siam</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12313,22 +12313,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sansevieria 'Blue' Banana</t>
+          <t>Sansevieria Combo Offer Of 6 (J)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sansevieria Ehrenbergii 'Banana'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-banana</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-j</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -12336,40 +12336,40 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lady Charm</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Crocodile Rock</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -12399,22 +12399,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sansevieria 'Fat' Banana</t>
+          <t>Sansevieria Whale Fin Green (Single Leaf)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sansevieria Ehrenbergii 'Banana'</t>
+          <t>Sansevieria Masoniana</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-banana</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-green-single-leaf</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -12422,7 +12422,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -12485,22 +12485,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Green Arrow'</t>
+          <t>Sansevieria Trifaciata 'Futura Gold'</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Green Arrow'</t>
+          <t>Sansevieria Trifaciata 'Futura Gold'</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-green-arrow</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-futura-gold</t>
         </is>
       </c>
       <c r="F141" t="b">
@@ -12571,22 +12571,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Banded Nelsonii'</t>
+          <t>Sansevieria Combo Offer Of 4 (I)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Trifaciata 'Banded Nelsonii'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-banded-nelsonii</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-i</t>
         </is>
       </c>
       <c r="F142" t="b">
@@ -12594,30 +12594,30 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Arborescens</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Bagamoyensis</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisi</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -12657,22 +12657,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Black Ant'</t>
+          <t>Sansevieria Combo Offer Of 6 (E)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-black-ant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-9</t>
         </is>
       </c>
       <c r="F143" t="b">
@@ -12680,40 +12680,40 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ballyi</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -12743,22 +12743,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Fighter'</t>
+          <t>Sansevieria Silver Siam Clump</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
+          <t>Sansevieria Silver Siam</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-fighter</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-siam-clump</t>
         </is>
       </c>
       <c r="F144" t="b">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -12829,22 +12829,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Sansevieria 'Pink Cell'</t>
+          <t>Sansevieria Green Mermaid Pup</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sansevieria 'Pink Cell' </t>
+          <t>Sansevieria Green Mermaid Pup</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 1,950.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-cell</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-green-mermaid</t>
         </is>
       </c>
       <c r="F145" t="b">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -12915,22 +12915,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Irish Bella</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Irish Bella</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>Rs. 1,350.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-irish-bella</t>
         </is>
       </c>
       <c r="F146" t="b">
@@ -13001,22 +13001,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih' Offshoot Of Large Specimen</t>
+          <t>S. Dragon Scales</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>S. Dragon Scales</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-offshoot-of-large-mother-plant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/s-dragon-scales</t>
         </is>
       </c>
       <c r="F147" t="b">
@@ -13087,22 +13087,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Trifaciata 'Green Arrow'</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Trifaciata 'Green Arrow'</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-green-arrow</t>
         </is>
       </c>
       <c r="F148" t="b">
@@ -13173,22 +13173,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sansevieria 'Sunflower'</t>
+          <t>Sansevieria Fighter Large Pup</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sansevieria 'Sunflower'</t>
+          <t>Sansevieria Fighter Large Pup</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 499.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sunflower</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fighter-large-pup</t>
         </is>
       </c>
       <c r="F149" t="b">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -13204,7 +13204,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Hybrid From Thailan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -13259,22 +13259,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sansevieria Hawaiian Star (Single Leaf)</t>
+          <t>Sansevieria Rahwana Large</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sansevieria Hawaiian Star</t>
+          <t>Sansevieria Rahwana Large</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hawaiian-star-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rahwana-large</t>
         </is>
       </c>
       <c r="F150" t="b">
@@ -13282,7 +13282,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -13345,26 +13345,26 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii Yellow Variegated</t>
+          <t>Sansevieria Kesya</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii Yellow Variegated</t>
+          <t>Sansevieria Kesya Large</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-yellow</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kesya</t>
         </is>
       </c>
       <c r="F151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -13431,22 +13431,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii</t>
+          <t>Sansevieria Argopuro With Mature Pup</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii</t>
+          <t>Sansevieria Argopuro With Mature Pup</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 1,500.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-argopuro-with-mature-pup</t>
         </is>
       </c>
       <c r="F152" t="b">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -13517,22 +13517,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Plantinum Cross</t>
+          <t>Sansevieria Bella Silver</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Plantinum Cross</t>
+          <t>Sansevieria Bella Silver Large Plant</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum-cross</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-bella-silver</t>
         </is>
       </c>
       <c r="F153" t="b">
@@ -13603,22 +13603,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Plantinum</t>
+          <t>Sansevieria Combo Of 2 Beautiful Plants Black Ants And Silver Boncel</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Plantinum</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants-black-ants-and-silver-boncel</t>
         </is>
       </c>
       <c r="F154" t="b">
@@ -13626,20 +13626,20 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Ants</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Boncel</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -13689,22 +13689,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sansevieria Manee</t>
+          <t>Moonshine Mutant</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sansevieria Manee</t>
+          <t>Moonshine Mutant</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 1,100.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manee</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant</t>
         </is>
       </c>
       <c r="F155" t="b">
@@ -13775,22 +13775,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sansevieria Rocker</t>
+          <t>Sansevieria Hahnii Gaster</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Sansevieria Rocker</t>
+          <t>Sansevieria Hahnii Gaster</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Rs. 5,000.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rocker</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hahnii-gaster</t>
         </is>
       </c>
       <c r="F156" t="b">
@@ -13861,22 +13861,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sansevieria Pink Boncel</t>
+          <t>Sansevieria 'Blue' Banana</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sansevieria Pink Boncel</t>
+          <t>Sansevieria Ehrenbergii 'Banana'</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-banana</t>
         </is>
       </c>
       <c r="F157" t="b">
@@ -13947,22 +13947,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sansevieria Meena</t>
+          <t>Sansevieria 'Fat' Banana</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sansevieria Meena</t>
+          <t>Sansevieria Ehrenbergii 'Banana'</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-meena</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-banana</t>
         </is>
       </c>
       <c r="F158" t="b">
@@ -14033,22 +14033,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sansevieria Mini Gold</t>
+          <t>Sansevieria Silver Sulfer</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sansevieria Mini Gold</t>
+          <t>Sansevieria Silver Sulfer Large</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 799.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-gold</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-sulfer</t>
         </is>
       </c>
       <c r="F159" t="b">
@@ -14119,22 +14119,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sansevieria Snow Boy</t>
+          <t>Sansevieria Trifaciata 'Banded Nelsonii'</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Sansevieria Snow Boy</t>
+          <t>Trifaciata 'Banded Nelsonii'</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Rs. 1,850.00</t>
+          <t>Rs. 1,100.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-snow-boy</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-banded-nelsonii</t>
         </is>
       </c>
       <c r="F160" t="b">
@@ -14205,22 +14205,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sansevieria Fat Man</t>
+          <t>Sansevieria Hybrid 'Black Ant'</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Sansevieria Fat Man</t>
+          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Rs. 1,450.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-man</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-black-ant</t>
         </is>
       </c>
       <c r="F161" t="b">
@@ -14291,22 +14291,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sansevieria Ming Manee</t>
+          <t>Sansevieria Hybrid 'Fighter'</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Sansevieria Ming Manee</t>
+          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ming-manee</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-fighter</t>
         </is>
       </c>
       <c r="F162" t="b">
@@ -14377,26 +14377,26 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Sansevieria Ebracteata Variegated</t>
+          <t>Sansevieria 'Pink Cell'</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Sansevieria Ebracteata Variegated</t>
+          <t xml:space="preserve">Sansevieria 'Pink Cell' </t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Rs. 1,150.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-cell</t>
         </is>
       </c>
       <c r="F163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -14463,22 +14463,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Jatayu'</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Jatayu'</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 2,000.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-jatayu</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-1</t>
         </is>
       </c>
       <c r="F164" t="b">
@@ -14549,22 +14549,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Sansevieria Moonshine Mutant</t>
+          <t>Sansevieria Hybrid 'Kasih' Offshoot Of Large Specimen</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Sansevieria Moonshine Mutant</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 1,000.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moonshine-mutant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-offshoot-of-large-mother-plant</t>
         </is>
       </c>
       <c r="F165" t="b">
@@ -14635,26 +14635,26 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sansevieria Samurai Variegated (B)</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Sansevieria Samurai Variegated</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-b</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih</t>
         </is>
       </c>
       <c r="F166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -14721,26 +14721,26 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (B)</t>
+          <t>Sansevieria 'Sunflower'</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria 'Sunflower'</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-b</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sunflower</t>
         </is>
       </c>
       <c r="F167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid From Thailan</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -14807,30 +14807,30 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (A)</t>
+          <t>Sansevieria Hawaiian Star (Single Leaf)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria Hawaiian Star</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 499.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-a</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hawaiian-star-single-leaf</t>
         </is>
       </c>
       <c r="F168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -14893,26 +14893,26 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Nilin'</t>
+          <t>Sansevieria Francisii Yellow Variegated</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Nilin</t>
+          <t>Sansevieria Francisii Yellow Variegated</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 1,650.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-nilin</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-yellow</t>
         </is>
       </c>
       <c r="F169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>

--- a/Week_03_Python_for_Development/Day_02_Regular_Expression_and_Text_Processing/Exercises/ex_02_fermosa_scraper/files/results.xlsx
+++ b/Week_03_Python_for_Development/Day_02_Regular_Expression_and_Text_Processing/Exercises/ex_02_fermosa_scraper/files/results.xlsx
@@ -531,22 +531,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii</t>
+          <t>Sansevieria Combo Offer Of 6 (A)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -554,40 +554,40 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Boncel Small Size</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -617,22 +617,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Plantinum Cross</t>
+          <t>Sansevieria Combo Offer Of 6 (L)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Plantinum Cross</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum-cross</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-l</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -640,40 +640,40 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Siam</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Princess</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trifaciata Robusta</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis Large</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -703,22 +703,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Plantinum</t>
+          <t>Sansevieria Combo Offer Of 6 (B)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Plantinum</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -726,40 +726,40 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Motomo</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -789,22 +789,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sansevieria Manee</t>
+          <t>Sansevieria Combo Offer Of 6 (H)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sansevieria Manee</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manee</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-h</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -812,40 +812,40 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri Singularis</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi Large</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -875,22 +875,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sansevieria Rocker</t>
+          <t>Sansevieria Combo Offer Of 5 (D)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sansevieria Rocker</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rs. 5,000.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rocker</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -898,35 +898,35 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Patens</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Whalefin</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -961,22 +961,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sansevieria Pink Boncel</t>
+          <t>Sansevieria Combo Offer Of 6 (K)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sansevieria Pink Boncel</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-k</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -984,40 +984,40 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Parva</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lady Charm Pup</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1047,22 +1047,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sansevieria Meena</t>
+          <t>Sansevieria Combo Offer Of 6 (F)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sansevieria Meena</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-meena</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-10</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -1070,40 +1070,40 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Parva</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Crocodile Rock</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1133,22 +1133,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sansevieria Mini Gold</t>
+          <t>Sansevieria Combo Offer Of 6 (G)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sansevieria Mini Gold</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-gold</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-g</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -1156,40 +1156,40 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Parva</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1219,22 +1219,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sansevieria Snow Boy</t>
+          <t>Sansevieria Silver Princess Clump</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sansevieria Snow Boy</t>
+          <t>Sansevieria Princess Siam</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rs. 1,850.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-snow-boy</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-princess-clump</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1305,22 +1305,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sansevieria Fat Man</t>
+          <t>Sansevieria Combo Offer Of 6 (C)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sansevieria Fat Man</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rs. 1,450.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-man</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-8</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -1328,40 +1328,40 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Motomo</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1391,22 +1391,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sansevieria Ming Manee</t>
+          <t>Sansevieria Combo Offer Of 3 (N)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sansevieria Ming Manee</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,000.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ming-manee</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-n</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -1414,25 +1414,25 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Dancing Lady</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Aff Marsha</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hahnii Gaster</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1477,26 +1477,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sansevieria Ebracteata Variegated</t>
+          <t>Sansevieria Hybrid 'Tower'</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sansevieria Ebracteata Variegated</t>
+          <t>Sansevieria Hybrid 'Tower'</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rs. 1,150.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower</t>
         </is>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Jatayu'</t>
+          <t>Sansevieria Combo Offer Of 4 (M)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Jatayu'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-jatayu</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-advance-combo-offer-of-10-m</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Masoniana Yellow Variegated</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii White Variegated</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata Yellow Variegated</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Boncel Yellow Variegate</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1649,12 +1649,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sansevieria Moonshine Mutant</t>
+          <t>Combo #103 (10 Sansevieria)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sansevieria Moonshine Mutant</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moonshine-mutant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-103-10-sansevieria</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -1672,60 +1672,60 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cleopatra</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pagoda</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Crown</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nalika</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lobel Kenya</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Andaman</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Spoon Leaf</t>
         </is>
       </c>
     </row>
@@ -1735,22 +1735,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sansevieria Samurai Variegated (B)</t>
+          <t>Sansevieria Masoniana Yellow Variegated (Single Leaf)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sansevieria Samurai Variegated</t>
+          <t>Sansevieria Masoniana Variegated</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-b</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-ballyi</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1821,30 +1821,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (B)</t>
+          <t>Sansevieria Gracilis Clump</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria Gracilis</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-b</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-gracilis-clump</t>
         </is>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1907,53 +1907,53 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (A)</t>
+          <t>Sansevieria Combo Offer Of 4 (P)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,000.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-a</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-p</t>
         </is>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sansevieria Pagoda Pup</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Boncel</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cleopatra</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii White Variegate</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1993,22 +1993,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Nilin'</t>
+          <t>Sansevieria Hybrid Delhi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Nilin</t>
+          <t>Sansevieria Hybrid Delhi</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-nilin</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-delhi</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -2079,43 +2079,43 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sansevieria Pinguicula Variegated (Small)</t>
+          <t>Sansevieria Combo Offer Of 2 (Q)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sansevieria Pinguicula Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rs. 5,500.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/pinguicula-variegated-small</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-o</t>
         </is>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Whitney</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Siam</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2165,63 +2165,63 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sansevieria Lavranos 23251 Variegated (Large)</t>
+          <t>Sansevieria Combo Offer Of 6 (J)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sansevieria Lavranos 23251 Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lavranos-23251-variegated-large</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-j</t>
         </is>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lady Charm</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Crocodile Rock</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2251,30 +2251,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii White Variegated</t>
+          <t>Sansevieria Whale Fin Green (Single Leaf)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii White Variegated</t>
+          <t>Sansevieria Masoniana</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-green-single-leaf</t>
         </is>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2337,22 +2337,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sansevieria Twister Clump</t>
+          <t>Sansevieria Trifaciata 'Futura Gold'</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sansevieria Twister</t>
+          <t>Sansevieria Trifaciata 'Futura Gold'</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rs. 550.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-twister-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-futura-gold</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2423,12 +2423,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel</t>
+          <t>Sansevieria Combo Offer Of 4 (I)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-i</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -2446,30 +2446,30 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Arborescens</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Bagamoyensis</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisi</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2509,22 +2509,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sansevieria Subspicata</t>
+          <t>Sansevieria Combo Offer Of 6 (E)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sansevieria Subspicata</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rs. 275.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-subspicata</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-9</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -2532,40 +2532,40 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ballyi</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2595,22 +2595,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#118 Sansevieria Combo Of 2 Plants</t>
+          <t>Sansevieria Silver Siam Clump</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Silver Siam</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/118-sansevieria-combo-of-2-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-siam-clump</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -2618,20 +2618,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Gold Dust</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi Color</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Combo #105 (Combo Of 4 Plants)</t>
+          <t>#119 Combo Of 5 Sansevieria</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,150.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-105-combo-of-4-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-5-sansevieria</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -2708,31 +2708,31 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Star Dust</t>
+          <t>Bao Dam</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Phanphet</t>
+          <t>Adventus</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>Black Ants</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Ravana</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Mlandi</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2767,26 +2767,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sansevieria Violet</t>
+          <t>Sansevieria Cordova Variegated</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sansevieria Violet</t>
+          <t>Cordova Variegated</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rs. 775.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-violet</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cordova-variegated</t>
         </is>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2853,22 +2853,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 7 Different</t>
+          <t>Sansevieria Chao Pharya Large Plant</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Chao Pharya</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-7-different</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant-1</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -2876,45 +2876,45 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Pagoda</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Nalika</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Fighter</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Sweet Celery</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lobel Kenya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2939,22 +2939,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 4 Plants</t>
+          <t>Sansevieria Cinta Large Plant</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Cinta Large Plant</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 2,299.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-4-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cinta-large-plant</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -2962,30 +2962,30 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Hawaiian Star</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Patens</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Katana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3025,22 +3025,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 2 (R)</t>
+          <t>Sansevieria Chao Pharya Large Plant</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Chao Pharya</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rs. 249.00</t>
+          <t>Rs. 1,500.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-r</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -3048,20 +3048,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Ballyi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Mini Ballyi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3111,22 +3111,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sansevieria Sp Somalia</t>
+          <t>Sansevieria Flamingo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sansevieria Sp Somalia</t>
+          <t>Sansevieria Flamingo</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rs. 3,000.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sp-somalia</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-flamingo</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -3197,48 +3197,48 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sansevieria Rorida Variegated</t>
+          <t>#114 Combo Of 3 Sanseveria</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rorida</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rs. 8,000.00</t>
+          <t>Rs. 1,199.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/114-combo-of-3-sanseveria</t>
         </is>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Green Arrow</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Gold Compacta</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nelsonii Banded</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3283,53 +3283,53 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (Large)</t>
+          <t>Sansevieria Combo Offer Of 4 (Y)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-variegated-large</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-y</t>
         </is>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Star Dust</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sengukuni</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ravana</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Phanphet</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3369,58 +3369,58 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Aslaam'</t>
+          <t>Sansevieria Combo (X) Offer Of 5 Variegated Sansevieria</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trifaciata 'Aslaam'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rs. 1,150.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-aslaam</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria-1</t>
         </is>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Florida H13 Var</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Uganda Black Var</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood Var</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata Var</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Stella Var</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3455,22 +3455,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sansevieria 'Oil Plastic'</t>
+          <t>Combo Of Eight Indonesian Hybrids Of Sansevieria Named On Hindu Gods And Godesses And From Hindu Mythology</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sansevieria Trifasciata 'Lillian True'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>Rs. 2,999.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-oil-plastic</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-of-eight-indonesian-hybrids-of-sansevieria-named-on-hindu-gods</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -3478,50 +3478,50 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Aswathama</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sri Rama</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sinta Named On Goddness Seeta Of Ramayana</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ravana Ex Thailand</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Prabhu</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Rahwana Ex Indonesia And That</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sengkuni Or Shakuni Of Mahabharatha</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3541,22 +3541,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel (Small)</t>
+          <t>Sansevieria Combo Offer Of 6 (U)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-small</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-u</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -3564,40 +3564,40 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Erytherae</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Patens</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>B10</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3627,22 +3627,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Laurentii</t>
+          <t>S. Craigii True Form</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Laurentii</t>
+          <t>Sansevieria Craigii</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-laurentii</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/s-craigii-true-form</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -3713,22 +3713,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sansevieria Ebracteata</t>
+          <t>Combo #113 Combo Of 5 Sansevieria</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sansevieria Ebracteata</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-113-combo-of-5-sansevieria</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -3736,35 +3736,35 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Bao Dam</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Adventus</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Ants</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Mlandi</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3799,53 +3799,53 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sansevieria Joboa Variegated</t>
+          <t>#111 Sansevieria Combo Of 4 Plants</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sansevieria Joboa Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-joboa-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/111-sansevieria-combo-of-4-plants</t>
         </is>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sawasdee</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Robo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Platinum Cross</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3885,22 +3885,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
+          <t>Sansevieria Manjha</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
+          <t>Sansevieria Manjha</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manjha</t>
         </is>
       </c>
       <c r="F41" t="b">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -3971,48 +3971,48 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#119 Combo Of 3 Sansevieria</t>
+          <t>S. Lake Sibaya Variegated</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Lakesibaya Variegated</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-3-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/s-lake-sibaya-variegated</t>
         </is>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Chao Pharya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Benthieng</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nakhon Luang</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4057,22 +4057,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya</t>
+          <t>Sansevieria Juleha</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya</t>
+          <t>Sansevieria Juleha</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 1,799.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-juleha</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -4143,22 +4143,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#116 Combo Of 4 Popular Indonesian Hybrids</t>
+          <t>Moonshine Var Pup</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Moonshine Var Pup</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/116-combo-of-4-popular-indonesian-hybrids</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-var-pup</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -4166,30 +4166,30 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Prima</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Prabhu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4229,22 +4229,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#115 Combo Of 4 Large Sansevieria</t>
+          <t>Moonshine Mutant Pup</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Moonshine Mutant Pup</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant-pup</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -4252,30 +4252,30 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Sulcata Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Fern Wood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Pearsonii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sansevieria Combo (X) Offer Of 5 Variegated Sansevieria</t>
+          <t>Combo #107 ( Combo Of 4 Plants)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4325,16 +4325,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rs. 1,550.00</t>
+          <t>Rs. 1,650.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-107-combo-of-4-plants</t>
         </is>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4342,31 +4342,31 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Florida H13 Var</t>
+          <t>Sheila</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Uganda Black Var</t>
+          <t>Adventus</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Fernwood Var</t>
+          <t>Rahwana</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Sulcata Var</t>
+          <t>Maya</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Stella Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (W)</t>
+          <t>Combo #106 (4 Beautiful Sansevieria)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Rs. 525.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-w</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-106-4-beautiful-sansevieria</t>
         </is>
       </c>
       <c r="F47" t="b">
@@ -4428,36 +4428,36 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>Robo</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Boncel</t>
+          <t>Luna</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Uganda Black</t>
+          <t>Bao Dam</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Whalefine Green</t>
+          <t>Star Gate</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>#112 Combo Of Five Rare Sansevieria Trifasciata Of New Generation</t>
+          <t>Seven High Value Sansevieria Plants As Combo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4497,12 +4497,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rs. 2,500.00</t>
+          <t>Rs. 3,450.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/112-combo-of-5-large-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/seven-high-value-sansevieria-plants-as-combo</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -4514,41 +4514,41 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Mutant Moonshine</t>
+          <t>Sinta</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Moonshine Variegated</t>
+          <t>Ashwathama</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Alslaam</t>
+          <t>Sengkuni</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Black Sword Aka Green Arrow</t>
+          <t>Prabu</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Nelsonni Banded</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Rahwana</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ravana</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4573,68 +4573,68 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>#110 Sansevieria Combo Of 7 Plants</t>
+          <t>Sansevieria Francissi Variegated</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Francissi Variegated Small</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/110-sansevieria-combo-of-7-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francissi-variegated</t>
         </is>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Robo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Boncel Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Platinum Cross</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Marsha Anjani</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Fighter</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Nilin</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Silver Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Combo #104 ( Combo Of 5 Sansevieria Mature Pups)</t>
+          <t>Combo #102 (5 Beautiful Sansevieria Pups)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4669,12 +4669,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>Rs. 1,850.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-104-combo-of-5-sansevieria-mature-pups</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-102-5-beautiful-sansevieria-pups</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -4690,27 +4690,27 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Aslaam</t>
+          <t>Black Ants</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
+          <t>Nelsonii Banded</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Black Gold Compacta</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Green Arrow</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
           <t>Moonshine Mutant</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Nelsonii Banded</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Green Arrow</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Moonshine Var</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4745,22 +4745,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>Sansevieria Silver Laurantii</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>Sansevieria Silver Laurantii</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rs. 475.00</t>
+          <t>Rs. 1,650.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/black-gold-compacta</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-laurantii-nbsp</t>
         </is>
       </c>
       <c r="F51" t="b">
@@ -4831,22 +4831,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 3 Beautiful Plants</t>
+          <t>Sansevieria Francisii</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Francisii</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Rs. 675.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-3-beautiful-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -4854,25 +4854,25 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Silver Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Boncel Ming Manee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4917,30 +4917,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana White Variegated (Single Leaf)</t>
+          <t>Sansevieria Boncel Plantinum Cross</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Variegated</t>
+          <t>Sansevieria Boncel Plantinum Cross</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-white-variegated-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum-cross</t>
         </is>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -5003,22 +5003,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sansevieria Rorida</t>
+          <t>Sansevieria Boncel Plantinum</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Rorida</t>
+          <t>Sansevieria Boncel Plantinum</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Rs. 1,300.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum</t>
         </is>
       </c>
       <c r="F54" t="b">
@@ -5089,22 +5089,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sansevieria 'Stardust'</t>
+          <t>Sansevieria Manee</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sansevieria 'Stardust'</t>
+          <t>Sansevieria Manee</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rs. 2,750.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-stardust</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manee</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -5175,22 +5175,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sansevieria Ballyi</t>
+          <t>Sansevieria Rocker</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sansevieria Ballyi</t>
+          <t>Sansevieria Rocker</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 5,000.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ballyi</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rocker</t>
         </is>
       </c>
       <c r="F56" t="b">
@@ -5261,22 +5261,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Crown</t>
+          <t>Sansevieria Pink Boncel</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Crown</t>
+          <t>Sansevieria Pink Boncel</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rs. 275.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-silver-crown</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-boncel</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -5347,22 +5347,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sansevieria Moose</t>
+          <t>Sansevieria Meena</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sansevieria Moose</t>
+          <t>Sansevieria Meena</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rs. 275.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moose-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-meena</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -5433,26 +5433,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Variegated (B)</t>
+          <t>Sansevieria Mini Gold</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Variegated</t>
+          <t>Sansevieria Mini Gold</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rs. 800.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-boncel-variegated-b</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-gold</t>
         </is>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5519,26 +5519,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Variegated (A)</t>
+          <t>Sansevieria Snow Boy</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel Variegated</t>
+          <t>Sansevieria Snow Boy</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 1,850.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-variegated-a</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-snow-boy</t>
         </is>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -5605,22 +5605,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sansevieria Cleopatra</t>
+          <t>Sansevieria Fat Man</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sansevieria Cleopatra</t>
+          <t>Sansevieria Fat Man</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,450.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cleopatra</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-man</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -5691,22 +5691,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sansevieria Moto Clump</t>
+          <t>Sansevieria Ming Manee</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sansevieria Moto</t>
+          <t>Sansevieria Ming Manee</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moto-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ming-manee</t>
         </is>
       </c>
       <c r="F62" t="b">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -5777,22 +5777,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sansevieria Samurai Variegated (A)</t>
+          <t>Sansevieria Ebracteata Variegated</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sansevieria Samurai Variegated</t>
+          <t>Sansevieria Ebracteata Variegated</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 1,150.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-a</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata-variegated</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -5863,26 +5863,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (D)</t>
+          <t>Sansevieria Hybrid 'Jatayu'</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria Hybrid 'Jatayu'</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-d</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-jatayu</t>
         </is>
       </c>
       <c r="F64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -5949,26 +5949,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (C)</t>
+          <t>Sansevieria Moonshine Mutant</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria Moonshine Mutant</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-c</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moonshine-mutant</t>
         </is>
       </c>
       <c r="F65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -6035,30 +6035,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Nilin' Pup</t>
+          <t>Sansevieria Samurai Variegated (B)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Nilin</t>
+          <t>Sansevieria Samurai Variegated</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Rs. 500.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-nilin-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-b</t>
         </is>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -6121,26 +6121,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Lobal Kenya</t>
+          <t>Sansevieria Blue Leaf Variegated (B)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Lobal Kenya</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lobal-kenya</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-b</t>
         </is>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -6207,63 +6207,63 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>#120 Combo Of 6 Sansevieria</t>
+          <t>Sansevieria Blue Leaf Variegated (A)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/120-combo-of-6-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-a</t>
         </is>
       </c>
       <c r="F68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Parbhu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Lady Charm</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Kitonga</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -6293,22 +6293,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
+          <t>Sansevieria Hybrid 'Nilin'</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
+          <t>Sansevieria Hybrid Nilin</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-nilin</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -6379,58 +6379,58 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#119 Combo Of 5 Sansevieria</t>
+          <t>Sansevieria Pinguicula Variegated (Small)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Pinguicula Variegated</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Rs. 1,150.00</t>
+          <t>Rs. 5,500.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-5-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/pinguicula-variegated-small</t>
         </is>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Bao Dam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Adventus</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Black Ants</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Black Mlandi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6465,22 +6465,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sansevieria Cordova Variegated</t>
+          <t>Sansevieria Lavranos 23251 Variegated (Large)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Cordova Variegated</t>
+          <t>Sansevieria Lavranos 23251 Variegated</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cordova-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lavranos-23251-variegated-large</t>
         </is>
       </c>
       <c r="F71" t="b">
@@ -6551,26 +6551,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya Large Plant</t>
+          <t>Sansevieria Francisii White Variegated</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya</t>
+          <t>Sansevieria Francisii White Variegated</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-variegated</t>
         </is>
       </c>
       <c r="F72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -6637,22 +6637,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sansevieria Cinta Large Plant</t>
+          <t>Sansevieria Twister Clump</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sansevieria Cinta Large Plant</t>
+          <t>Sansevieria Twister</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Rs. 2,299.00</t>
+          <t>Rs. 550.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cinta-large-plant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-twister-clump</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -6723,22 +6723,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya Large Plant</t>
+          <t>Sansevieria Boncel</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya</t>
+          <t>Sansevieria Boncel</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rs. 1,500.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -6809,22 +6809,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sansevieria Flamingo</t>
+          <t>Sansevieria Subspicata</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sansevieria Flamingo</t>
+          <t>Sansevieria Subspicata</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 275.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-flamingo</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-subspicata</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>#114 Combo Of 3 Sanseveria</t>
+          <t>#118 Sansevieria Combo Of 2 Plants</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6905,12 +6905,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Rs. 1,199.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/114-combo-of-3-sanseveria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/118-sansevieria-combo-of-2-plants</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -6922,21 +6922,21 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Green Arrow</t>
+          <t>Gold Dust</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>Hi Color</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Nelsonii Banded</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (Y)</t>
+          <t>Combo #105 (Combo Of 4 Plants)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6991,12 +6991,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-y</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-105-combo-of-4-plants</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -7017,17 +7017,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Sengukuni</t>
+          <t>Phanphet</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
+          <t>Tower</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
           <t>Ravana</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Phanphet</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -7067,58 +7067,58 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sansevieria Combo (X) Offer Of 5 Variegated Sansevieria</t>
+          <t>Sansevieria Violet</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Violet</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 775.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-violet</t>
         </is>
       </c>
       <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
         <v>1</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Combo</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>5</v>
-      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Florida H13 Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Uganda Black Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Fernwood Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Sulcata Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Stella Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Combo Of Eight Indonesian Hybrids Of Sansevieria Named On Hindu Gods And Godesses And From Hindu Mythology</t>
+          <t>Sansevieria Combo Of 7 Different</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7163,12 +7163,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Rs. 2,999.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-of-eight-indonesian-hybrids-of-sansevieria-named-on-hindu-gods</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-7-different</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -7180,46 +7180,46 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Aswathama</t>
+          <t>Pagoda</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Sri Rama</t>
+          <t>Nalika</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sinta Named On Goddness Seeta Of Ramayana</t>
+          <t>Fighter</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>Sweet Celery</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Ravana Ex Thailand</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Prabhu</t>
+          <t>Lobel Kenya</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Rahwana Ex Indonesia And That</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Sengkuni Or Shakuni Of Mahabharatha</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (U)</t>
+          <t>Sansevieria Combo Of 4 Plants</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7249,12 +7249,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-u</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-4-plants</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -7266,36 +7266,36 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Erytherae</t>
+          <t>Hawaiian Star</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
+          <t>Patens</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
           <t>Fischeri</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Patens</t>
-        </is>
-      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Sulcata</t>
+          <t>Katana</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>B10</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -7325,22 +7325,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S. Craigii True Form</t>
+          <t>Sansevieria Combo Offer Of 2 (R)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sansevieria Craigii</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 249.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/s-craigii-true-form</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-r</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -7348,20 +7348,20 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ballyi</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Ballyi</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -7411,22 +7411,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Combo #113 Combo Of 5 Sansevieria</t>
+          <t>Sansevieria Sp Somalia</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Sp Somalia</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 3,000.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-113-combo-of-5-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sp-somalia</t>
         </is>
       </c>
       <c r="F82" t="b">
@@ -7434,35 +7434,35 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Bao Dam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Adventus</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Black Ants</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Black Mlandi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7497,53 +7497,53 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>#111 Sansevieria Combo Of 4 Plants</t>
+          <t>Sansevieria Rorida Variegated</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Rorida</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 8,000.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/111-sansevieria-combo-of-4-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida-variegated</t>
         </is>
       </c>
       <c r="F83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Sawasdee</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Robo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Platinum Cross</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -7583,26 +7583,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sansevieria Manjha</t>
+          <t>Sansevieria Blue Leaf Variegated (Large)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sansevieria Manjha</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manjha</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-variegated-large</t>
         </is>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -7669,26 +7669,26 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S. Lake Sibaya Variegated</t>
+          <t>Sansevieria Trifaciata 'Aslaam'</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sansevieria Lakesibaya Variegated</t>
+          <t>Trifaciata 'Aslaam'</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 1,150.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/s-lake-sibaya-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-aslaam</t>
         </is>
       </c>
       <c r="F85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -7755,22 +7755,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sansevieria Juleha</t>
+          <t>Sansevieria 'Oil Plastic'</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sansevieria Juleha</t>
+          <t>Sansevieria Trifasciata 'Lillian True'</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Rs. 1,799.00</t>
+          <t>Rs. 1,100.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-juleha</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-oil-plastic</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -7841,22 +7841,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Moonshine Var Pup</t>
+          <t>Sansevieria Boncel (Small)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Moonshine Var Pup</t>
+          <t>Sansevieria Boncel</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-var-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-small</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -7927,22 +7927,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Moonshine Mutant Pup</t>
+          <t>Sansevieria Trifaciata Laurentii</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Moonshine Mutant Pup</t>
+          <t>Sansevieria Trifaciata Laurentii</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-laurentii</t>
         </is>
       </c>
       <c r="F88" t="b">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -8013,22 +8013,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Combo #107 ( Combo Of 4 Plants)</t>
+          <t>Sansevieria Ebracteata</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Ebracteata</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-107-combo-of-4-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -8036,30 +8036,30 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Sheila</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Adventus</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Rahwana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Maya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -8099,53 +8099,53 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Combo #106 (4 Beautiful Sansevieria)</t>
+          <t>Sansevieria Joboa Variegated</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Joboa Variegated</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 2,000.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-106-4-beautiful-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-joboa-variegated</t>
         </is>
       </c>
       <c r="F90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Robo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Luna</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Bao Dam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Star Gate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -8185,22 +8185,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Seven High Value Sansevieria Plants As Combo</t>
+          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Rs. 3,450.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/seven-high-value-sansevieria-plants-as-combo</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants-1</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -8208,45 +8208,45 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Sinta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Ashwathama</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Sengkuni</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Prabu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Rahwana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Ravana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -8271,48 +8271,48 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sansevieria Francissi Variegated</t>
+          <t>#119 Combo Of 3 Sansevieria</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sansevieria Francissi Variegated Small</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 1,650.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francissi-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-3-sansevieria</t>
         </is>
       </c>
       <c r="F92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Chao Pharya</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Benthieng</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nakhon Luang</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -8357,22 +8357,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Combo #102 (5 Beautiful Sansevieria Pups)</t>
+          <t>Sansevieria Chao Pharya</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Chao Pharya</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Rs. 1,850.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-102-5-beautiful-sansevieria-pups</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -8380,35 +8380,35 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Black Ants</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Nelsonii Banded</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Green Arrow</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Moonshine Mutant</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8443,22 +8443,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Laurantii</t>
+          <t>#116 Combo Of 4 Popular Indonesian Hybrids</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Laurantii</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-laurantii-nbsp</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/116-combo-of-4-popular-indonesian-hybrids</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -8466,30 +8466,30 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Prima</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Prabhu</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -8529,22 +8529,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sansevieria Whale Fin Yellow Border (Single Leaf)</t>
+          <t>#115 Combo Of 4 Large Sansevieria</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-yellow-border-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria-1</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -8552,30 +8552,30 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata Var</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fern Wood</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pearsonii</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -8615,58 +8615,58 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sansevieria Mini Boncel</t>
+          <t>Sansevieria Combo (X) Offer Of 5 Variegated Sansevieria</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sansevieria Mini Boncel</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 1,550.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria</t>
         </is>
       </c>
       <c r="F96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Florida H13 Var</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Uganda Black Var</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood Var</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata Var</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Stella Var</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (S)</t>
+          <t>Sansevieria Combo Offer Of 6 (W)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -8711,12 +8711,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Rs. 399.00</t>
+          <t>Rs. 525.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-s</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-w</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -8728,36 +8728,36 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Pinguicula</t>
+          <t>Boncel</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Mini Ballyi</t>
+          <t>Uganda Black</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Whalefine Green</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -8787,22 +8787,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sansevieria Hu-Chang</t>
+          <t>#112 Combo Of Five Rare Sansevieria Trifasciata Of New Generation</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sansevieria Hu-Chang</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 2,500.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hu-chang</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/112-combo-of-5-large-sansevieria</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -8810,35 +8810,35 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mutant Moonshine</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moonshine Variegated</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Alslaam</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Sword Aka Green Arrow</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nelsonni Banded</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -8873,22 +8873,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sansevieria Fernwood Clump</t>
+          <t>#110 Sansevieria Combo Of 7 Plants</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sansevieria Fernwood</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fernwood-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/110-sansevieria-combo-of-7-plants</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -8896,45 +8896,45 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Robo</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Boncel Var</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Platinum Cross</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Marsha Anjani</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fighter</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nilin</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Boncel</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii Combo Of 3</t>
+          <t>Combo #104 ( Combo Of 5 Sansevieria Mature Pups)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -8969,12 +8969,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 2,000.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-combo-of-3</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-104-combo-of-5-sansevieria-mature-pups</t>
         </is>
       </c>
       <c r="F100" t="b">
@@ -8986,31 +8986,31 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Francisii Yellow Variegated</t>
+          <t>Aslaam</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Francisii Green</t>
+          <t>Moonshine Mutant</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Francisii White Variegate</t>
+          <t>Nelsonii Banded</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Green Arrow</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moonshine Var</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -9045,22 +9045,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sansevieria Crocodile Rock Clump</t>
+          <t>Black Gold Compacta</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sansevieria Crocodile Rock</t>
+          <t>Black Gold Compacta</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 475.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-crocodile-rock-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/black-gold-compacta</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -9131,22 +9131,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Sansevieria Brazillian Moonshine</t>
+          <t>Sansevieria Combo Of 3 Beautiful Plants</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Brazillian Moonshine</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Rs. 599.00</t>
+          <t>Rs. 675.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-brazillian-moonshine</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-3-beautiful-plants</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -9154,25 +9154,25 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Boncel</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Boncel Ming Manee</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -9217,48 +9217,48 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (Z)</t>
+          <t>Sansevieria Masoniana White Variegated (Single Leaf)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Masoniana Variegated</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Rs. 550.00</t>
+          <t>Rs. 499.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-z</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-white-variegated-single-leaf</t>
         </is>
       </c>
       <c r="F103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Baicularis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Canaliculata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -9303,22 +9303,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 5 (T)</t>
+          <t>Sansevieria Rorida</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Rorida</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 1,300.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5-t</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -9326,35 +9326,35 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Moonshine</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Superba</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Zeylanica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Robusta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -9389,22 +9389,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sansevieria Iceman</t>
+          <t>Sansevieria 'Stardust'</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sansevieria Iceman</t>
+          <t>Sansevieria 'Stardust'</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 2,750.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-iceman</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-stardust</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -9475,22 +9475,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sansevieria Kirkii Silver Blue</t>
+          <t>Sansevieria Ballyi</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sansevieria Kirkii Silver Blue</t>
+          <t>Sansevieria Ballyi</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Rs. 300.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kirkii-silver-blue</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ballyi</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -9561,22 +9561,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower' Pup</t>
+          <t>Sansevieria Silver Crown</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower'</t>
+          <t>Sansevieria Silver Crown</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 275.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-silver-crown</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -9647,22 +9647,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sansevieria Trifasciata 'Ghost'</t>
+          <t>Sansevieria Moose</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Sansevieria Ghost</t>
+          <t>Sansevieria Moose</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Rs. 525.00</t>
+          <t>Rs. 275.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ghost</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moose-1</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -9733,68 +9733,68 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 7 (V)</t>
+          <t>Sansevieria Boncel Variegated (B)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Boncel Variegated</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 800.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7-v</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-boncel-variegated-b</t>
         </is>
       </c>
       <c r="F109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Katana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Uganda Black</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Sulcata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -9819,22 +9819,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Yellow Variegated (Tall Variety)</t>
+          <t>Sansevieria Boncel Variegated (A)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Variegated</t>
+          <t>Sansevieria Boncel Variegated</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-yellow-variegated-tall-variety</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-variegated-a</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -9905,22 +9905,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Boncel</t>
+          <t>Sansevieria Cleopatra</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Boncel</t>
+          <t>Sansevieria Cleopatra</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Rs. 300.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cleopatra</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -9991,22 +9991,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Robusta Clump</t>
+          <t>Sansevieria Moto Clump</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Robusta</t>
+          <t>Sansevieria Moto</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-robusta-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moto-clump</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -10077,26 +10077,26 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sansevieria Pagoda</t>
+          <t>Sansevieria Samurai Variegated (A)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Pagoda</t>
+          <t>Sansevieria Samurai Variegated</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pagoda</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-a</t>
         </is>
       </c>
       <c r="F113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -10163,22 +10163,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sansevieria Sulcata Variegated</t>
+          <t>Sansevieria Blue Leaf Variegated (D)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sansevieria Sulcata Variegated</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sulcata-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-d</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -10249,53 +10249,53 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>#115 Combo Of 4 Large Sansevieria</t>
+          <t>Sansevieria Blue Leaf Variegated (C)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-c</t>
         </is>
       </c>
       <c r="F115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Sulcata Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Fern Wood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Pearsonii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -10335,22 +10335,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (O)</t>
+          <t>Sansevieria Hybrid 'Nilin' Pup</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Hybrid Nilin</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Rs. 1,200.00</t>
+          <t>Rs. 500.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-o</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-nilin-pup</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -10358,25 +10358,25 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Lake Sibaya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Futura Gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -10421,22 +10421,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Nymph Clump</t>
+          <t>Sansevieria Hybrid Lobal Kenya</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Nymph</t>
+          <t>Sansevieria Hybrid Lobal Kenya</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 499.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-nymph-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lobal-kenya</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>#117 Sansevieria Combo Offer Of 5</t>
+          <t>#120 Combo Of 6 Sansevieria</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -10522,7 +10522,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/117-sansevieria-combo-offer-of-5</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/120-combo-of-6-sansevieria</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -10534,36 +10534,36 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Jade Marginata</t>
+          <t>Parbhu</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Golden Hahnii</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Twisted Sisters</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Night Owl</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Black Jade</t>
+          <t>Lady Charm</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kitonga</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -10593,22 +10593,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 2 Beautiful Plants</t>
+          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -10616,20 +10616,20 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Nalika</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10679,22 +10679,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (A)</t>
+          <t>Sansevieria Green Mermaid Pup</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Green Mermaid Pup</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 1,950.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-green-mermaid</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -10702,40 +10702,40 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Boncel Small Size</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -10765,22 +10765,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (L)</t>
+          <t>Sansevieria Irish Bella</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Irish Bella</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 1,350.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-l</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-irish-bella</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -10788,40 +10788,40 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Silver Siam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Silver Princess</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Trifaciata Robusta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Gracilis Large</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -10851,22 +10851,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (B)</t>
+          <t>S. Dragon Scales</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>S. Dragon Scales</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/s-dragon-scales</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -10874,40 +10874,40 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Motomo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -10937,22 +10937,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (H)</t>
+          <t>Sansevieria Fighter Large Pup</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Fighter Large Pup</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 499.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-h</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fighter-large-pup</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -10960,40 +10960,40 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Fischeri Singularis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Hybrid Delhi Large</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -11023,22 +11023,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 5 (D)</t>
+          <t>Sansevieria Silver Sulfer</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Silver Sulfer Large</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 799.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-sulfer</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -11046,35 +11046,35 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Patens</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Whalefin</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -11109,22 +11109,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (K)</t>
+          <t>Sansevieria Rahwana Large</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Rahwana Large</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-k</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rahwana-large</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -11132,40 +11132,40 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Parva</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Lady Charm Pup</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -11195,22 +11195,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (F)</t>
+          <t>Sansevieria Kesya</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Kesya Large</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-10</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kesya</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -11218,40 +11218,40 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Parva</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Crocodile Rock</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -11281,22 +11281,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (G)</t>
+          <t>Sansevieria Argopuro With Mature Pup</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Argopuro With Mature Pup</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 1,500.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-g</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-argopuro-with-mature-pup</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -11304,40 +11304,40 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Parva</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -11367,22 +11367,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Princess Clump</t>
+          <t>Sansevieria Bella Silver</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Sansevieria Princess Siam</t>
+          <t>Sansevieria Bella Silver Large Plant</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-princess-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-bella-silver</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (C)</t>
+          <t>Sansevieria Combo Of 2 Beautiful Plants Black Ants And Silver Boncel</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -11463,12 +11463,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-8</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants-black-ants-and-silver-boncel</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -11480,36 +11480,36 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>Black Ants</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Silver Boncel</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Motomo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -11539,22 +11539,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (N)</t>
+          <t>Moonshine Mutant</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Moonshine Mutant</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>Rs. 1,100.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-n</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -11562,25 +11562,25 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Dancing Lady</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Aff Marsha</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Hahnii Gaster</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -11625,22 +11625,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower'</t>
+          <t>Sansevieria Hahnii Gaster</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower'</t>
+          <t>Sansevieria Hahnii Gaster</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hahnii-gaster</t>
         </is>
       </c>
       <c r="F131" t="b">
@@ -11711,22 +11711,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (M)</t>
+          <t>Sansevieria 'Blue' Banana</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Ehrenbergii 'Banana'</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-advance-combo-offer-of-10-m</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-banana</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -11734,30 +11734,30 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Masoniana Yellow Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Francisii White Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Sulcata Yellow Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Boncel Yellow Variegate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -11797,22 +11797,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Combo #103 (10 Sansevieria)</t>
+          <t>Sansevieria 'Fat' Banana</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Ehrenbergii 'Banana'</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-103-10-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-banana</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -11820,60 +11820,60 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Cleopatra</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Pagoda</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Silver Crown</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Nalika</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>Lobel Kenya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>Andaman</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Spoon Leaf</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -11883,30 +11883,30 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Yellow Variegated (Single Leaf)</t>
+          <t>Sansevieria Trifaciata 'Green Arrow'</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Variegated</t>
+          <t>Sansevieria Trifaciata 'Green Arrow'</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-ballyi</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-green-arrow</t>
         </is>
       </c>
       <c r="F134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -11969,22 +11969,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sansevieria Gracilis Clump</t>
+          <t>Sansevieria Trifaciata 'Banded Nelsonii'</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sansevieria Gracilis</t>
+          <t>Trifaciata 'Banded Nelsonii'</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 1,100.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-gracilis-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-banded-nelsonii</t>
         </is>
       </c>
       <c r="F135" t="b">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -12055,22 +12055,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (P)</t>
+          <t>Sansevieria Hybrid 'Black Ant'</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-p</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-black-ant</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -12078,30 +12078,30 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Sansevieria Pagoda Pup</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Silver Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Cleopatra</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Francisii White Variegate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -12141,22 +12141,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Delhi</t>
+          <t>Sansevieria Hybrid 'Fighter'</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Delhi</t>
+          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-delhi</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-fighter</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -12227,22 +12227,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 2 (Q)</t>
+          <t>Sansevieria 'Pink Cell'</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t xml:space="preserve">Sansevieria 'Pink Cell' </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-o</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-cell</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -12250,20 +12250,20 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Whitney</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Silver Siam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12313,22 +12313,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (J)</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 2,000.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-j</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-1</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -12336,40 +12336,40 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Lady Charm</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Crocodile Rock</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -12399,22 +12399,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sansevieria Whale Fin Green (Single Leaf)</t>
+          <t>Sansevieria Hybrid 'Kasih' Offshoot Of Large Specimen</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 1,000.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-green-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-offshoot-of-large-mother-plant</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -12422,7 +12422,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -12485,22 +12485,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Futura Gold'</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Futura Gold'</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-futura-gold</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih</t>
         </is>
       </c>
       <c r="F141" t="b">
@@ -12571,22 +12571,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (I)</t>
+          <t>Sansevieria 'Sunflower'</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria 'Sunflower'</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-i</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sunflower</t>
         </is>
       </c>
       <c r="F142" t="b">
@@ -12594,30 +12594,30 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Arborescens</t>
+          <t>Hybrid From Thailan</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Bagamoyensis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Francisi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -12657,22 +12657,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (E)</t>
+          <t>Sansevieria Hawaiian Star (Single Leaf)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Hawaiian Star</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 499.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-9</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hawaiian-star-single-leaf</t>
         </is>
       </c>
       <c r="F143" t="b">
@@ -12680,40 +12680,40 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Ballyi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -12743,30 +12743,30 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Siam Clump</t>
+          <t>Sansevieria Francisii Yellow Variegated</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Siam</t>
+          <t>Sansevieria Francisii Yellow Variegated</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 1,650.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-siam-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-yellow</t>
         </is>
       </c>
       <c r="F144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -12829,22 +12829,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Sansevieria Green Mermaid Pup</t>
+          <t>Sansevieria Whale Fin Yellow Border (Single Leaf)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Sansevieria Green Mermaid Pup</t>
+          <t>Sansevieria Masoniana</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Rs. 1,950.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-green-mermaid</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-yellow-border-single-leaf</t>
         </is>
       </c>
       <c r="F145" t="b">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -12915,22 +12915,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Sansevieria Irish Bella</t>
+          <t>Sansevieria Mini Boncel</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Sansevieria Irish Bella</t>
+          <t>Sansevieria Mini Boncel</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Rs. 1,350.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-irish-bella</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-boncel</t>
         </is>
       </c>
       <c r="F146" t="b">
@@ -13001,22 +13001,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>S. Dragon Scales</t>
+          <t>Sansevieria Combo Offer Of 3 (S)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>S. Dragon Scales</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 399.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/s-dragon-scales</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-s</t>
         </is>
       </c>
       <c r="F147" t="b">
@@ -13024,25 +13024,25 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pinguicula</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Ballyi</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -13087,22 +13087,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Green Arrow'</t>
+          <t>Sansevieria Hu-Chang</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Green Arrow'</t>
+          <t>Sansevieria Hu-Chang</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-green-arrow</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hu-chang</t>
         </is>
       </c>
       <c r="F148" t="b">
@@ -13173,22 +13173,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sansevieria Fighter Large Pup</t>
+          <t>Sansevieria Fernwood Clump</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sansevieria Fighter Large Pup</t>
+          <t>Sansevieria Fernwood</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fighter-large-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fernwood-clump</t>
         </is>
       </c>
       <c r="F149" t="b">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -13259,22 +13259,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sansevieria Rahwana Large</t>
+          <t>Sansevieria Francisii Combo Of 3</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sansevieria Rahwana Large</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rahwana-large</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-combo-of-3</t>
         </is>
       </c>
       <c r="F150" t="b">
@@ -13282,25 +13282,25 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii Yellow Variegated</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii Green</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii White Variegate</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -13345,22 +13345,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sansevieria Kesya</t>
+          <t>Sansevieria Crocodile Rock Clump</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sansevieria Kesya Large</t>
+          <t>Sansevieria Crocodile Rock</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kesya</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-crocodile-rock-clump</t>
         </is>
       </c>
       <c r="F151" t="b">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -13431,22 +13431,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sansevieria Argopuro With Mature Pup</t>
+          <t>Sansevieria Brazillian Moonshine</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sansevieria Argopuro With Mature Pup</t>
+          <t>Brazillian Moonshine</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Rs. 1,500.00</t>
+          <t>Rs. 599.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-argopuro-with-mature-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-brazillian-moonshine</t>
         </is>
       </c>
       <c r="F152" t="b">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -13517,22 +13517,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sansevieria Bella Silver</t>
+          <t>Sansevieria Combo Offer Of 3 (Z)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sansevieria Bella Silver Large Plant</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 550.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-bella-silver</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-z</t>
         </is>
       </c>
       <c r="F153" t="b">
@@ -13540,25 +13540,25 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Baicularis</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Canaliculata</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 2 Beautiful Plants Black Ants And Silver Boncel</t>
+          <t>Sansevieria Combo Offer Of 5 (T)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -13613,12 +13613,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants-black-ants-and-silver-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5-t</t>
         </is>
       </c>
       <c r="F154" t="b">
@@ -13630,31 +13630,31 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Black Ants</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Silver Boncel</t>
+          <t>Moonshine</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Superba</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Zeylanica</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Robusta</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -13689,22 +13689,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Moonshine Mutant</t>
+          <t>Sansevieria Iceman</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Moonshine Mutant</t>
+          <t>Sansevieria Iceman</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-iceman</t>
         </is>
       </c>
       <c r="F155" t="b">
@@ -13775,22 +13775,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sansevieria Hahnii Gaster</t>
+          <t>Sansevieria Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Sansevieria Hahnii Gaster</t>
+          <t>Sansevieria Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 300.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hahnii-gaster</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kirkii-silver-blue</t>
         </is>
       </c>
       <c r="F156" t="b">
@@ -13861,22 +13861,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sansevieria 'Blue' Banana</t>
+          <t>Sansevieria Hybrid 'Tower' Pup</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sansevieria Ehrenbergii 'Banana'</t>
+          <t>Sansevieria Hybrid 'Tower'</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-banana</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower-pup</t>
         </is>
       </c>
       <c r="F157" t="b">
@@ -13884,7 +13884,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -13947,22 +13947,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sansevieria 'Fat' Banana</t>
+          <t>Sansevieria Trifasciata 'Ghost'</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sansevieria Ehrenbergii 'Banana'</t>
+          <t>Sansevieria Ghost</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 525.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-banana</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ghost</t>
         </is>
       </c>
       <c r="F158" t="b">
@@ -14033,22 +14033,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Sulfer</t>
+          <t>Sansevieria Combo Offer Of 7 (V)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Sulfer Large</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Rs. 799.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-sulfer</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7-v</t>
         </is>
       </c>
       <c r="F159" t="b">
@@ -14056,45 +14056,45 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Katana</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Uganda Black</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
@@ -14119,26 +14119,26 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Banded Nelsonii'</t>
+          <t>Sansevieria Masoniana Yellow Variegated (Tall Variety)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Trifaciata 'Banded Nelsonii'</t>
+          <t>Sansevieria Masoniana Variegated</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-banded-nelsonii</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-yellow-variegated-tall-variety</t>
         </is>
       </c>
       <c r="F160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -14205,22 +14205,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Black Ant'</t>
+          <t>Sansevieria Silver Boncel</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
+          <t>Sansevieria Silver Boncel</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 300.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-black-ant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-boncel</t>
         </is>
       </c>
       <c r="F161" t="b">
@@ -14291,22 +14291,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Fighter'</t>
+          <t>Sansevieria Trifaciata Robusta Clump</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
+          <t>Sansevieria Trifaciata Robusta</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-fighter</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-robusta-clump</t>
         </is>
       </c>
       <c r="F162" t="b">
@@ -14314,7 +14314,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -14377,22 +14377,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Sansevieria 'Pink Cell'</t>
+          <t>Sansevieria Pagoda</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sansevieria 'Pink Cell' </t>
+          <t>Sansevieria Hybrid Pagoda</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-cell</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pagoda</t>
         </is>
       </c>
       <c r="F163" t="b">
@@ -14463,26 +14463,26 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Sulcata Variegated</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Sulcata Variegated</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sulcata-variegated</t>
         </is>
       </c>
       <c r="F164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -14549,22 +14549,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih' Offshoot Of Large Specimen</t>
+          <t>#115 Combo Of 4 Large Sansevieria</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-offshoot-of-large-mother-plant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria</t>
         </is>
       </c>
       <c r="F165" t="b">
@@ -14572,30 +14572,30 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata Var</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fern Wood</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pearsonii</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -14635,22 +14635,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Combo Offer Of 3 (O)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 1,200.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-o</t>
         </is>
       </c>
       <c r="F166" t="b">
@@ -14658,25 +14658,25 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Gold Compacta</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lake Sibaya</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Futura Gold</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -14721,22 +14721,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Sansevieria 'Sunflower'</t>
+          <t>Sansevieria Silver Nymph Clump</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Sansevieria 'Sunflower'</t>
+          <t>Sansevieria Silver Nymph</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sunflower</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-nymph-clump</t>
         </is>
       </c>
       <c r="F167" t="b">
@@ -14744,7 +14744,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Hybrid From Thailan</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -14807,22 +14807,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sansevieria Hawaiian Star (Single Leaf)</t>
+          <t>#117 Sansevieria Combo Offer Of 5</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Sansevieria Hawaiian Star</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hawaiian-star-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/117-sansevieria-combo-offer-of-5</t>
         </is>
       </c>
       <c r="F168" t="b">
@@ -14830,35 +14830,35 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jade Marginata</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Golden Hahnii</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Twisted Sisters</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Night Owl</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Jade</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -14893,43 +14893,43 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii Yellow Variegated</t>
+          <t>Sansevieria Combo Of 2 Beautiful Plants</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii Yellow Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-yellow</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants</t>
         </is>
       </c>
       <c r="F169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nalika</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">

--- a/Week_03_Python_for_Development/Day_02_Regular_Expression_and_Text_Processing/Exercises/ex_02_fermosa_scraper/files/results.xlsx
+++ b/Week_03_Python_for_Development/Day_02_Regular_Expression_and_Text_Processing/Exercises/ex_02_fermosa_scraper/files/results.xlsx
@@ -2079,30 +2079,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sansevieria Pinguicula Variegated (Small)</t>
+          <t>Sansevieria Whale Fin Yellow Border (Single Leaf)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sansevieria Pinguicula Variegated</t>
+          <t>Sansevieria Masoniana</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rs. 5,500.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/pinguicula-variegated-small</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-yellow-border-single-leaf</t>
         </is>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2165,26 +2165,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sansevieria Lavranos 23251 Variegated (Large)</t>
+          <t>Sansevieria Mini Boncel</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sansevieria Lavranos 23251 Variegated</t>
+          <t>Sansevieria Mini Boncel</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lavranos-23251-variegated-large</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-boncel</t>
         </is>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2251,48 +2251,48 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii White Variegated</t>
+          <t>Sansevieria Combo Offer Of 3 (S)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii White Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rs. 1,750.00</t>
+          <t>Rs. 399.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-s</t>
         </is>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pinguicula</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Ballyi</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2337,22 +2337,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sansevieria Twister Clump</t>
+          <t>Sansevieria Hu-Chang</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sansevieria Twister</t>
+          <t>Sansevieria Hu-Chang</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rs. 550.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-twister-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hu-chang</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2423,22 +2423,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel</t>
+          <t>Sansevieria Fernwood Clump</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel</t>
+          <t>Sansevieria Fernwood</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fernwood-clump</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2509,22 +2509,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sansevieria Subspicata</t>
+          <t>Sansevieria Francisii Combo Of 3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sansevieria Subspicata</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rs. 275.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-subspicata</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-combo-of-3</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -2532,25 +2532,25 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii Yellow Variegated</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii Green</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii White Variegate</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2595,22 +2595,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#118 Sansevieria Combo Of 2 Plants</t>
+          <t>Sansevieria Crocodile Rock Clump</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Crocodile Rock</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/118-sansevieria-combo-of-2-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-crocodile-rock-clump</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -2618,20 +2618,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Gold Dust</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Hi Color</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2681,22 +2681,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Combo #105 (Combo Of 4 Plants)</t>
+          <t>Sansevieria Brazillian Moonshine</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Brazillian Moonshine</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 599.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-105-combo-of-4-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-brazillian-moonshine</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -2704,30 +2704,30 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Star Dust</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Phanphet</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Ravana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2767,22 +2767,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sansevieria Violet</t>
+          <t>Sansevieria Combo Offer Of 3 (Z)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sansevieria Violet</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rs. 775.00</t>
+          <t>Rs. 550.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-violet</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-z</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -2790,25 +2790,25 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Baicularis</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Canaliculata</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 7 Different</t>
+          <t>Sansevieria Combo Offer Of 5 (T)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2863,12 +2863,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-7-different</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5-t</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -2880,41 +2880,41 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Pagoda</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Nalika</t>
+          <t>Moonshine</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Fighter</t>
+          <t>Superba</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Sweet Celery</t>
+          <t>Zeylanica</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>Robusta</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lobel Kenya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2939,22 +2939,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 4 Plants</t>
+          <t>Sansevieria Iceman</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Iceman</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-4-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-iceman</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -2962,30 +2962,30 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Hawaiian Star</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Patens</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Katana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3025,22 +3025,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 2 (R)</t>
+          <t>Sansevieria Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rs. 249.00</t>
+          <t>Rs. 300.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-r</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kirkii-silver-blue</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -3048,20 +3048,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Ballyi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Mini Ballyi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3111,22 +3111,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sansevieria Sp Somalia</t>
+          <t>Sansevieria Hybrid 'Tower' Pup</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sansevieria Sp Somalia</t>
+          <t>Sansevieria Hybrid 'Tower'</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rs. 3,000.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sp-somalia</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower-pup</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3197,26 +3197,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sansevieria Rorida Variegated</t>
+          <t>Sansevieria Trifasciata 'Ghost'</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rorida</t>
+          <t>Sansevieria Ghost</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rs. 8,000.00</t>
+          <t>Rs. 525.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ghost</t>
         </is>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3283,68 +3283,68 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated (Large)</t>
+          <t>Sansevieria Combo Offer Of 7 (V)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sansevieria Blue Leaf Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-variegated-large</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7-v</t>
         </is>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Katana</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Uganda Black</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3369,26 +3369,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Aslaam'</t>
+          <t>Sansevieria Masoniana Yellow Variegated (Tall Variety)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trifaciata 'Aslaam'</t>
+          <t>Sansevieria Masoniana Variegated</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rs. 1,150.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-aslaam</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-yellow-variegated-tall-variety</t>
         </is>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3455,22 +3455,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sansevieria 'Oil Plastic'</t>
+          <t>Sansevieria Silver Boncel</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sansevieria Trifasciata 'Lillian True'</t>
+          <t>Sansevieria Silver Boncel</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>Rs. 300.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-oil-plastic</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-boncel</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -3541,22 +3541,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel (Small)</t>
+          <t>Sansevieria Trifaciata Robusta Clump</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sansevieria Boncel</t>
+          <t>Sansevieria Trifaciata Robusta</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-small</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-robusta-clump</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3627,22 +3627,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Laurentii</t>
+          <t>Sansevieria Pagoda</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Laurentii</t>
+          <t>Sansevieria Hybrid Pagoda</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-laurentii</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pagoda</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -3713,12 +3713,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sansevieria Ebracteata</t>
+          <t>Sansevieria Sulcata Variegated</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sansevieria Ebracteata</t>
+          <t>Sansevieria Sulcata Variegated</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3728,11 +3728,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sulcata-variegated</t>
         </is>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3799,53 +3799,53 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sansevieria Joboa Variegated</t>
+          <t>#115 Combo Of 4 Large Sansevieria</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sansevieria Joboa Variegated</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-joboa-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria</t>
         </is>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata Var</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fern Wood</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pearsonii</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3885,22 +3885,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
+          <t>Sansevieria Combo Offer Of 3 (O)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 1,200.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-o</t>
         </is>
       </c>
       <c r="F41" t="b">
@@ -3908,25 +3908,25 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Gold Compacta</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lake Sibaya</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Futura Gold</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3971,22 +3971,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#119 Combo Of 3 Sansevieria</t>
+          <t>Sansevieria Silver Nymph Clump</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Silver Nymph</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-3-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-nymph-clump</t>
         </is>
       </c>
       <c r="F42" t="b">
@@ -3994,25 +3994,25 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Chao Pharya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Benthieng</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nakhon Luang</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4057,12 +4057,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya</t>
+          <t>#117 Sansevieria Combo Offer Of 5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sansevieria Chao Pharya</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/117-sansevieria-combo-offer-of-5</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -4080,35 +4080,35 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jade Marginata</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Golden Hahnii</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Twisted Sisters</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Night Owl</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Black Jade</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#116 Combo Of 4 Popular Indonesian Hybrids</t>
+          <t>Sansevieria Combo Of 2 Beautiful Plants</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4153,12 +4153,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/116-combo-of-4-popular-indonesian-hybrids</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -4170,26 +4170,26 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Prima</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Prabhu</t>
+          <t>Nalika</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Jatayu</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -8529,22 +8529,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sansevieria Whale Fin Yellow Border (Single Leaf)</t>
+          <t>Sansevieria Green Mermaid Pup</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana</t>
+          <t>Sansevieria Green Mermaid Pup</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 1,950.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-yellow-border-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-green-mermaid</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -8615,22 +8615,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sansevieria Mini Boncel</t>
+          <t>Sansevieria Irish Bella</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sansevieria Mini Boncel</t>
+          <t>Sansevieria Irish Bella</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 1,350.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-irish-bella</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -8701,22 +8701,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (S)</t>
+          <t>S. Dragon Scales</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>S. Dragon Scales</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Rs. 399.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-s</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/s-dragon-scales</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -8724,25 +8724,25 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Pinguicula</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Mini Ballyi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -8787,22 +8787,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sansevieria Hu-Chang</t>
+          <t>Sansevieria Fighter Large Pup</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sansevieria Hu-Chang</t>
+          <t>Sansevieria Fighter Large Pup</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 499.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hu-chang</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fighter-large-pup</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -8873,22 +8873,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sansevieria Fernwood Clump</t>
+          <t>Sansevieria Silver Sulfer</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sansevieria Fernwood</t>
+          <t>Sansevieria Silver Sulfer Large</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 799.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fernwood-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-sulfer</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -8959,22 +8959,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii Combo Of 3</t>
+          <t>Sansevieria Rahwana Large</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Rahwana Large</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-combo-of-3</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rahwana-large</t>
         </is>
       </c>
       <c r="F100" t="b">
@@ -8982,25 +8982,25 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Francisii Yellow Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Francisii Green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Francisii White Variegate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -9045,22 +9045,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sansevieria Crocodile Rock Clump</t>
+          <t>Sansevieria Kesya</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sansevieria Crocodile Rock</t>
+          <t>Sansevieria Kesya Large</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-crocodile-rock-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kesya</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -9131,22 +9131,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Sansevieria Brazillian Moonshine</t>
+          <t>Sansevieria Argopuro With Mature Pup</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Brazillian Moonshine</t>
+          <t>Sansevieria Argopuro With Mature Pup</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Rs. 599.00</t>
+          <t>Rs. 1,500.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-brazillian-moonshine</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-argopuro-with-mature-pup</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Pup</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -9217,22 +9217,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (Z)</t>
+          <t>Sansevieria Bella Silver</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Bella Silver Large Plant</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Rs. 550.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-z</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-bella-silver</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -9240,25 +9240,25 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Baicularis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Canaliculata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 5 (T)</t>
+          <t>Sansevieria Combo Of 2 Beautiful Plants Black Ants And Silver Boncel</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -9313,12 +9313,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 575.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5-t</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants-black-ants-and-silver-boncel</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -9330,31 +9330,31 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>Black Ants</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Moonshine</t>
+          <t>Silver Boncel</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Superba</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Zeylanica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Robusta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -9389,22 +9389,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sansevieria Iceman</t>
+          <t>Moonshine Mutant</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sansevieria Iceman</t>
+          <t>Moonshine Mutant</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 1,100.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-iceman</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -9475,22 +9475,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sansevieria Kirkii Silver Blue</t>
+          <t>Sansevieria Hahnii Gaster</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sansevieria Kirkii Silver Blue</t>
+          <t>Sansevieria Hahnii Gaster</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Rs. 300.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kirkii-silver-blue</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hahnii-gaster</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -9561,22 +9561,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower' Pup</t>
+          <t>Sansevieria 'Blue' Banana</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower'</t>
+          <t>Sansevieria Ehrenbergii 'Banana'</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-banana</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -9647,22 +9647,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sansevieria Trifasciata 'Ghost'</t>
+          <t>Sansevieria 'Fat' Banana</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Sansevieria Ghost</t>
+          <t>Sansevieria Ehrenbergii 'Banana'</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Rs. 525.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ghost</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-banana</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -9733,22 +9733,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 7 (V)</t>
+          <t>Sansevieria Trifaciata 'Green Arrow'</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Trifaciata 'Green Arrow'</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 699.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7-v</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-green-arrow</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -9756,45 +9756,45 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Katana</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Uganda Black</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Sulcata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -9819,26 +9819,26 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Yellow Variegated (Tall Variety)</t>
+          <t>Sansevieria Trifaciata 'Banded Nelsonii'</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Variegated</t>
+          <t>Trifaciata 'Banded Nelsonii'</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,100.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-yellow-variegated-tall-variety</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-banded-nelsonii</t>
         </is>
       </c>
       <c r="F110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -9905,22 +9905,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Boncel</t>
+          <t>Sansevieria Hybrid 'Black Ant'</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Boncel</t>
+          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Rs. 300.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-black-ant</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -9991,22 +9991,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Robusta Clump</t>
+          <t>Sansevieria Hybrid 'Fighter'</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata Robusta</t>
+          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-robusta-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-fighter</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -10077,22 +10077,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sansevieria Pagoda</t>
+          <t>Sansevieria 'Pink Cell'</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Pagoda</t>
+          <t xml:space="preserve">Sansevieria 'Pink Cell' </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 650.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pagoda</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-cell</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -10163,26 +10163,26 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sansevieria Sulcata Variegated</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sansevieria Sulcata Variegated</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 2,000.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sulcata-variegated</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-1</t>
         </is>
       </c>
       <c r="F114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -10249,22 +10249,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>#115 Combo Of 4 Large Sansevieria</t>
+          <t>Sansevieria Hybrid 'Kasih' Offshoot Of Large Specimen</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 1,000.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-offshoot-of-large-mother-plant</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -10272,30 +10272,30 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Sulcata Var</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Fern Wood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Pearsonii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Fischeri</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -10335,22 +10335,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (O)</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Hybrid 'Kasih'</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Rs. 1,200.00</t>
+          <t>Rs. 600.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-o</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -10358,25 +10358,25 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Black Gold Compacta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Lake Sibaya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Futura Gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -10421,22 +10421,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Nymph Clump</t>
+          <t>Sansevieria 'Sunflower'</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Nymph</t>
+          <t>Sansevieria 'Sunflower'</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-nymph-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sunflower</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid From Thailan</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -10507,22 +10507,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>#117 Sansevieria Combo Offer Of 5</t>
+          <t>Sansevieria Hawaiian Star (Single Leaf)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Hawaiian Star</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 499.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/117-sansevieria-combo-offer-of-5</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hawaiian-star-single-leaf</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -10530,35 +10530,35 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Jade Marginata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Golden Hahnii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Twisted Sisters</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Night Owl</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Black Jade</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -10593,43 +10593,43 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 2 Beautiful Plants</t>
+          <t>Sansevieria Francisii Yellow Variegated</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Francisii Yellow Variegated</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 1,650.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-yellow</t>
         </is>
       </c>
       <c r="F119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Nalika</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -10679,63 +10679,63 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (A)</t>
+          <t>Sansevieria Pinguicula Variegated (Small)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Pinguicula Variegated</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 5,500.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/pinguicula-variegated-small</t>
         </is>
       </c>
       <c r="F120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>Boncel Small Size</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -10765,63 +10765,63 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (L)</t>
+          <t>Sansevieria Lavranos 23251 Variegated (Large)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Lavranos 23251 Variegated</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-l</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lavranos-23251-variegated-large</t>
         </is>
       </c>
       <c r="F121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Silver Siam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Silver Princess</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Trifaciata Robusta</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>Gracilis Large</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -10851,63 +10851,63 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (B)</t>
+          <t>Sansevieria Francisii White Variegated</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Francisii White Variegated</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 1,750.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-variegated</t>
         </is>
       </c>
       <c r="F122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Motomo</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -10937,22 +10937,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (H)</t>
+          <t>Sansevieria Twister Clump</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Twister</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 550.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-h</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-twister-clump</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -10960,40 +10960,40 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Fischeri Singularis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Hybrid Delhi Large</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -11023,22 +11023,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 5 (D)</t>
+          <t>Sansevieria Boncel</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Boncel</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -11046,35 +11046,35 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Patens</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Fernwood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Whalefin</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Coppertone</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -11109,22 +11109,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (K)</t>
+          <t>Sansevieria Subspicata</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Subspicata</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 275.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-k</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-subspicata</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -11132,40 +11132,40 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Parva</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Lady Charm Pup</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (F)</t>
+          <t>#118 Sansevieria Combo Of 2 Plants</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -11205,12 +11205,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-10</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/118-sansevieria-combo-of-2-plants</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -11222,36 +11222,36 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>Gold Dust</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>Hi Color</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Parva</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>Crocodile Rock</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (G)</t>
+          <t>Combo #105 (Combo Of 4 Plants)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -11291,12 +11291,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 850.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-g</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-105-combo-of-4-plants</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -11308,36 +11308,36 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>Star Dust</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>Phanphet</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Kirkii Silver Blue</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Parva</t>
+          <t>Ravana</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Subspicata</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -11367,22 +11367,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Princess Clump</t>
+          <t>Sansevieria Violet</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Sansevieria Princess Siam</t>
+          <t>Sansevieria Violet</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 775.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-princess-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-violet</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (C)</t>
+          <t>Sansevieria Combo Of 7 Different</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -11463,12 +11463,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-8</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-7-different</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -11480,41 +11480,41 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>Pagoda</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Nalika</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Fighter</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>Sweet Celery</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Motomo</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>Lobel Kenya</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -11539,7 +11539,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 3 (N)</t>
+          <t>Sansevieria Combo Of 4 Plants</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -11549,12 +11549,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-n</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-4-plants</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -11566,26 +11566,26 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Dancing Lady</t>
+          <t>Hawaiian Star</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Aff Marsha</t>
+          <t>Patens</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Hahnii Gaster</t>
+          <t>Fischeri</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Katana</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -11625,22 +11625,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower'</t>
+          <t>Sansevieria Combo Offer Of 2 (R)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Tower'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Rs. 750.00</t>
+          <t>Rs. 249.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-r</t>
         </is>
       </c>
       <c r="F131" t="b">
@@ -11648,20 +11648,20 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ballyi</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Ballyi</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -11711,22 +11711,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (M)</t>
+          <t>Sansevieria Sp Somalia</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Sp Somalia</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 3,000.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-advance-combo-offer-of-10-m</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sp-somalia</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -11734,30 +11734,30 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Masoniana Yellow Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Francisii White Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Sulcata Yellow Variegated</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Boncel Yellow Variegate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -11797,83 +11797,83 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Combo #103 (10 Sansevieria)</t>
+          <t>Sansevieria Rorida Variegated</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Rorida</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 8,000.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/combo-103-10-sansevieria</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida-variegated</t>
         </is>
       </c>
       <c r="F133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Cleopatra</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Sindoro</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Pagoda</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Silver Crown</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Tower</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>Midnight Fountain</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Nalika</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>Lobel Kenya</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>Andaman</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Spoon Leaf</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -11883,22 +11883,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Yellow Variegated (Single Leaf)</t>
+          <t>Sansevieria Blue Leaf Variegated (Large)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana Variegated</t>
+          <t>Sansevieria Blue Leaf Variegated</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 3,500.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-ballyi</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-variegated-large</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -11906,7 +11906,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -11969,22 +11969,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sansevieria Gracilis Clump</t>
+          <t>Sansevieria Trifaciata 'Aslaam'</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sansevieria Gracilis</t>
+          <t>Trifaciata 'Aslaam'</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Rs. 199.00</t>
+          <t>Rs. 1,150.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-gracilis-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-aslaam</t>
         </is>
       </c>
       <c r="F135" t="b">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -12055,22 +12055,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (P)</t>
+          <t>Sansevieria 'Oil Plastic'</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Trifasciata 'Lillian True'</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>Rs. 1,100.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-p</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-oil-plastic</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -12078,30 +12078,30 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Sansevieria Pagoda Pup</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Silver Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Cleopatra</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Francisii White Variegate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -12141,12 +12141,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Delhi</t>
+          <t>Sansevieria Boncel (Small)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Delhi</t>
+          <t>Sansevieria Boncel</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-delhi</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-small</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -12227,22 +12227,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 2 (Q)</t>
+          <t>Sansevieria Trifaciata Laurentii</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Trifaciata Laurentii</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-o</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-laurentii</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -12250,20 +12250,20 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Whitney</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Silver Siam</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -12313,22 +12313,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (J)</t>
+          <t>Sansevieria Ebracteata</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Ebracteata</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Rs. 299.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-j</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -12336,40 +12336,40 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Lady Charm</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Gracilis</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Crocodile Rock</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Silver Nymph</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>Silver Steel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -12399,30 +12399,30 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sansevieria Whale Fin Green (Single Leaf)</t>
+          <t>Sansevieria Joboa Variegated</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sansevieria Masoniana</t>
+          <t>Sansevieria Joboa Variegated</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Rs. 250.00</t>
+          <t>Rs. 2,000.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-green-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-joboa-variegated</t>
         </is>
       </c>
       <c r="F140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -12485,22 +12485,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Futura Gold'</t>
+          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Futura Gold'</t>
+          <t>Sansevieria Whitney Clump Of 3 Large Plants</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-futura-gold</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants-1</t>
         </is>
       </c>
       <c r="F141" t="b">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 4 (I)</t>
+          <t>#119 Combo Of 3 Sansevieria</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -12581,12 +12581,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 1,650.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-i</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-3-sansevieria</t>
         </is>
       </c>
       <c r="F142" t="b">
@@ -12598,26 +12598,26 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Arborescens</t>
+          <t>Chao Pharya</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Bagamoyensis</t>
+          <t>Benthieng</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>Nakhon Luang</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Francisi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -12657,22 +12657,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Offer Of 6 (E)</t>
+          <t>Sansevieria Chao Pharya</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sansevieria (Combo)</t>
+          <t>Sansevieria Chao Pharya</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Rs. 350.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-9</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya</t>
         </is>
       </c>
       <c r="F143" t="b">
@@ -12680,40 +12680,40 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Combo</t>
+          <t>Plant</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Mini Boncel</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Ballyi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Cylindrica</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Hybrid Delhi</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>Francisii</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -12743,22 +12743,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Siam Clump</t>
+          <t>#116 Combo Of 4 Popular Indonesian Hybrids</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Siam</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Rs. 450.00</t>
+          <t>Rs. 999.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-siam-clump</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/116-combo-of-4-popular-indonesian-hybrids</t>
         </is>
       </c>
       <c r="F144" t="b">
@@ -12766,30 +12766,30 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Clump</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Prima</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Prabhu</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Jatayu</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -12829,22 +12829,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Sansevieria Green Mermaid Pup</t>
+          <t>Sansevieria Combo Offer Of 6 (A)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Sansevieria Green Mermaid Pup</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Rs. 1,950.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-green-mermaid</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6</t>
         </is>
       </c>
       <c r="F145" t="b">
@@ -12852,40 +12852,40 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Boncel Small Size</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -12915,22 +12915,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Sansevieria Irish Bella</t>
+          <t>Sansevieria Combo Offer Of 6 (L)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Sansevieria Irish Bella</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Rs. 1,350.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-irish-bella</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-l</t>
         </is>
       </c>
       <c r="F146" t="b">
@@ -12938,40 +12938,40 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Siam</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Princess</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Trifaciata Robusta</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis Large</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -13001,22 +13001,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>S. Dragon Scales</t>
+          <t>Sansevieria Combo Offer Of 6 (B)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>S. Dragon Scales</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/s-dragon-scales</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7</t>
         </is>
       </c>
       <c r="F147" t="b">
@@ -13024,40 +13024,40 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Motomo</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -13087,22 +13087,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Green Arrow'</t>
+          <t>Sansevieria Combo Offer Of 6 (H)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Green Arrow'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Rs. 699.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-green-arrow</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-h</t>
         </is>
       </c>
       <c r="F148" t="b">
@@ -13110,40 +13110,40 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fischeri Singularis</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi Large</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -13173,22 +13173,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sansevieria Fighter Large Pup</t>
+          <t>Sansevieria Combo Offer Of 5 (D)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sansevieria Fighter Large Pup</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fighter-large-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5</t>
         </is>
       </c>
       <c r="F149" t="b">
@@ -13196,35 +13196,35 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Patens</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Fernwood</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Whalefin</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Coppertone</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -13259,22 +13259,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sansevieria Rahwana Large</t>
+          <t>Sansevieria Combo Offer Of 6 (K)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sansevieria Rahwana Large</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rahwana-large</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-k</t>
         </is>
       </c>
       <c r="F150" t="b">
@@ -13282,40 +13282,40 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Parva</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lady Charm Pup</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -13345,22 +13345,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sansevieria Kesya</t>
+          <t>Sansevieria Combo Offer Of 6 (F)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sansevieria Kesya Large</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kesya</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-10</t>
         </is>
       </c>
       <c r="F151" t="b">
@@ -13368,40 +13368,40 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Parva</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Crocodile Rock</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -13431,22 +13431,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sansevieria Argopuro With Mature Pup</t>
+          <t>Sansevieria Combo Offer Of 6 (G)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sansevieria Argopuro With Mature Pup</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Rs. 1,500.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-argopuro-with-mature-pup</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-g</t>
         </is>
       </c>
       <c r="F152" t="b">
@@ -13454,40 +13454,40 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Pup</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kirkii Silver Blue</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Parva</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Subspicata</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -13517,22 +13517,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sansevieria Bella Silver</t>
+          <t>Sansevieria Silver Princess Clump</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sansevieria Bella Silver Large Plant</t>
+          <t>Sansevieria Princess Siam</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Rs. 999.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-bella-silver</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-princess-clump</t>
         </is>
       </c>
       <c r="F153" t="b">
@@ -13540,7 +13540,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sansevieria Combo Of 2 Beautiful Plants Black Ants And Silver Boncel</t>
+          <t>Sansevieria Combo Offer Of 6 (C)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -13613,12 +13613,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Rs. 575.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants-black-ants-and-silver-boncel</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-8</t>
         </is>
       </c>
       <c r="F154" t="b">
@@ -13630,36 +13630,36 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Black Ants</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Silver Boncel</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Motomo</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -13689,22 +13689,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Moonshine Mutant</t>
+          <t>Sansevieria Combo Offer Of 3 (N)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Moonshine Mutant</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>Rs. 1,000.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-n</t>
         </is>
       </c>
       <c r="F155" t="b">
@@ -13712,25 +13712,25 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Dancing Lady</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Aff Marsha</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hahnii Gaster</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -13775,22 +13775,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sansevieria Hahnii Gaster</t>
+          <t>Sansevieria Hybrid 'Tower'</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Sansevieria Hahnii Gaster</t>
+          <t>Sansevieria Hybrid 'Tower'</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 750.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hahnii-gaster</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower</t>
         </is>
       </c>
       <c r="F156" t="b">
@@ -13861,22 +13861,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sansevieria 'Blue' Banana</t>
+          <t>Sansevieria Combo Offer Of 4 (M)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sansevieria Ehrenbergii 'Banana'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Rs. 1,250.00</t>
+          <t>Rs. 1,499.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-banana</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-advance-combo-offer-of-10-m</t>
         </is>
       </c>
       <c r="F157" t="b">
@@ -13884,30 +13884,30 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Masoniana Yellow Variegated</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii White Variegated</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sulcata Yellow Variegated</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Boncel Yellow Variegate</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -13947,22 +13947,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sansevieria 'Fat' Banana</t>
+          <t>Combo #103 (10 Sansevieria)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sansevieria Ehrenbergii 'Banana'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Rs. 850.00</t>
+          <t>Rs. 1,250.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-banana</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-103-10-sansevieria</t>
         </is>
       </c>
       <c r="F158" t="b">
@@ -13970,60 +13970,60 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cleopatra</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sindoro</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Pagoda</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Crown</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tower</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Midnight Fountain</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nalika</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lobel Kenya</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Andaman</t>
         </is>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Spoon Leaf</t>
         </is>
       </c>
     </row>
@@ -14033,30 +14033,30 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Sulfer</t>
+          <t>Sansevieria Masoniana Yellow Variegated (Single Leaf)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sansevieria Silver Sulfer Large</t>
+          <t>Sansevieria Masoniana Variegated</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Rs. 799.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-sulfer</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-ballyi</t>
         </is>
       </c>
       <c r="F159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -14119,22 +14119,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sansevieria Trifaciata 'Banded Nelsonii'</t>
+          <t>Sansevieria Gracilis Clump</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Trifaciata 'Banded Nelsonii'</t>
+          <t>Sansevieria Gracilis</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Rs. 1,100.00</t>
+          <t>Rs. 199.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-banded-nelsonii</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-gracilis-clump</t>
         </is>
       </c>
       <c r="F160" t="b">
@@ -14142,7 +14142,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -14205,22 +14205,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Black Ant'</t>
+          <t>Sansevieria Combo Offer Of 4 (P)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Rs. 3,500.00</t>
+          <t>Rs. 1,000.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-black-ant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-p</t>
         </is>
       </c>
       <c r="F161" t="b">
@@ -14228,30 +14228,30 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sansevieria Pagoda Pup</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Boncel</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cleopatra</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii White Variegate</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -14291,22 +14291,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Fighter'</t>
+          <t>Sansevieria Hybrid Delhi</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid Ch 17023 "Fighter"</t>
+          <t>Sansevieria Hybrid Delhi</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-fighter</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-delhi</t>
         </is>
       </c>
       <c r="F162" t="b">
@@ -14377,22 +14377,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Sansevieria 'Pink Cell'</t>
+          <t>Sansevieria Combo Offer Of 2 (Q)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sansevieria 'Pink Cell' </t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Rs. 650.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-cell</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-o</t>
         </is>
       </c>
       <c r="F163" t="b">
@@ -14400,20 +14400,20 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Whitney</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Siam</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -14463,22 +14463,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Combo Offer Of 6 (J)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Rs. 2,000.00</t>
+          <t>Rs. 299.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-1</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-j</t>
         </is>
       </c>
       <c r="F164" t="b">
@@ -14486,40 +14486,40 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lady Charm</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Gracilis</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Crocodile Rock</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Nymph</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Silver Steel</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -14549,22 +14549,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih' Offshoot Of Large Specimen</t>
+          <t>Sansevieria Whale Fin Green (Single Leaf)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Masoniana</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Rs. 1,000.00</t>
+          <t>Rs. 250.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-offshoot-of-large-mother-plant</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-green-single-leaf</t>
         </is>
       </c>
       <c r="F165" t="b">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Single Leaf</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -14635,22 +14635,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Trifaciata 'Futura Gold'</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Sansevieria Hybrid 'Kasih'</t>
+          <t>Sansevieria Trifaciata 'Futura Gold'</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Rs. 600.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-futura-gold</t>
         </is>
       </c>
       <c r="F166" t="b">
@@ -14721,22 +14721,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Sansevieria 'Sunflower'</t>
+          <t>Sansevieria Combo Offer Of 4 (I)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Sansevieria 'Sunflower'</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Rs. 1,499.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sunflower</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-i</t>
         </is>
       </c>
       <c r="F167" t="b">
@@ -14744,30 +14744,30 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Hybrid From Thailan</t>
+          <t>Arborescens</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Bagamoyensis</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisi</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -14807,22 +14807,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sansevieria Hawaiian Star (Single Leaf)</t>
+          <t>Sansevieria Combo Offer Of 6 (E)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Sansevieria Hawaiian Star</t>
+          <t>Sansevieria (Combo)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Rs. 499.00</t>
+          <t>Rs. 350.00</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hawaiian-star-single-leaf</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-9</t>
         </is>
       </c>
       <c r="F168" t="b">
@@ -14830,40 +14830,40 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Single Leaf</t>
+          <t>Combo</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Moto</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Mini Boncel</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ballyi</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cylindrica</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hybrid Delhi</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Francisii</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -14893,30 +14893,30 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii Yellow Variegated</t>
+          <t>Sansevieria Silver Siam Clump</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Sansevieria Francisii Yellow Variegated</t>
+          <t>Sansevieria Silver Siam</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Rs. 1,650.00</t>
+          <t>Rs. 450.00</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-yellow</t>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-siam-clump</t>
         </is>
       </c>
       <c r="F169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>Clump</t>
         </is>
       </c>
       <c r="H169" t="n">
